--- a/PhoenixCI/Excel_Template/30320.xlsx
+++ b/PhoenixCI/Excel_Template/30320.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Source\Repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAD33175-AC74-4C64-B91B-2B72FA4FF7DE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E506BAD-F607-4243-AA70-361B17B0DF41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="599"/>
+    <workbookView xWindow="32760" yWindow="32760" windowWidth="15255" windowHeight="8595" tabRatio="599"/>
   </bookViews>
   <sheets>
     <sheet name="30320" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -807,45 +806,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -883,6 +843,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -902,11 +901,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -985,8 +984,8 @@
     <xf numFmtId="178" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="183" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1017,6 +1016,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="189" fontId="32" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="189" fontId="32" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1029,18 +1032,25 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="189" fontId="32" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="189" fontId="32" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="189" fontId="32" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="189" fontId="32" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="189" fontId="32" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="189" fontId="33" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="189" fontId="33" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="189" fontId="34" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="189" fontId="34" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1056,15 +1066,15 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="32" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="32" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="35" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="35" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="187" fontId="35" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="187" fontId="35" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1072,7 +1082,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="188" fontId="35" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="188" fontId="35" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1106,20 +1116,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="32" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="32" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1129,7 +1128,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1168,18 +1167,18 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1394,7 +1393,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F070-404E-91EB-C93A489F7F06}"/>
+              <c16:uniqueId val="{00000000-AA5B-41D6-837B-27E2E3B4AD5E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1552,7 +1551,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F070-404E-91EB-C93A489F7F06}"/>
+              <c16:uniqueId val="{00000001-AA5B-41D6-837B-27E2E3B4AD5E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1710,7 +1709,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F070-404E-91EB-C93A489F7F06}"/>
+              <c16:uniqueId val="{00000002-AA5B-41D6-837B-27E2E3B4AD5E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1866,7 +1865,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-F070-404E-91EB-C93A489F7F06}"/>
+              <c16:uniqueId val="{00000003-AA5B-41D6-837B-27E2E3B4AD5E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2022,7 +2021,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-F070-404E-91EB-C93A489F7F06}"/>
+              <c16:uniqueId val="{00000004-AA5B-41D6-837B-27E2E3B4AD5E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2171,7 +2170,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-F070-404E-91EB-C93A489F7F06}"/>
+              <c16:uniqueId val="{00000005-AA5B-41D6-837B-27E2E3B4AD5E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2297,7 +2296,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-F070-404E-91EB-C93A489F7F06}"/>
+              <c16:uniqueId val="{00000006-AA5B-41D6-837B-27E2E3B4AD5E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2423,7 +2422,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-F070-404E-91EB-C93A489F7F06}"/>
+              <c16:uniqueId val="{00000007-AA5B-41D6-837B-27E2E3B4AD5E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2437,11 +2436,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="300897984"/>
+        <c:axId val="392910744"/>
         <c:axId val="1"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="300897984"/>
+        <c:axId val="392910744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2531,7 +2530,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300897984"/>
+        <c:crossAx val="392910744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="100"/>
@@ -2560,7 +2559,7 @@
           <c:x val="0.29222797927461142"/>
           <c:y val="7.6530612244897961E-2"/>
           <c:w val="0.42901554404145081"/>
-          <c:h val="0.35034013605442182"/>
+          <c:h val="0.35034013605442177"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2710,7 +2709,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-D15D-481C-89CB-C9AEA38F1290}"/>
+                <c16:uniqueId val="{00000000-A327-45C4-892B-48A8704D344F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2730,7 +2729,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-D15D-481C-89CB-C9AEA38F1290}"/>
+                <c16:uniqueId val="{00000001-A327-45C4-892B-48A8704D344F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2750,7 +2749,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-D15D-481C-89CB-C9AEA38F1290}"/>
+                <c16:uniqueId val="{00000002-A327-45C4-892B-48A8704D344F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2770,7 +2769,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-D15D-481C-89CB-C9AEA38F1290}"/>
+                <c16:uniqueId val="{00000003-A327-45C4-892B-48A8704D344F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2790,7 +2789,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-D15D-481C-89CB-C9AEA38F1290}"/>
+                <c16:uniqueId val="{00000004-A327-45C4-892B-48A8704D344F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2810,7 +2809,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-D15D-481C-89CB-C9AEA38F1290}"/>
+                <c16:uniqueId val="{00000005-A327-45C4-892B-48A8704D344F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2819,7 +2818,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-D15D-481C-89CB-C9AEA38F1290}"/>
+                <c16:uniqueId val="{00000006-A327-45C4-892B-48A8704D344F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2828,7 +2827,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-D15D-481C-89CB-C9AEA38F1290}"/>
+                <c16:uniqueId val="{00000007-A327-45C4-892B-48A8704D344F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2875,7 +2874,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-D15D-481C-89CB-C9AEA38F1290}"/>
+                  <c16:uniqueId val="{00000000-A327-45C4-892B-48A8704D344F}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2921,7 +2920,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-D15D-481C-89CB-C9AEA38F1290}"/>
+                  <c16:uniqueId val="{00000001-A327-45C4-892B-48A8704D344F}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2967,7 +2966,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-D15D-481C-89CB-C9AEA38F1290}"/>
+                  <c16:uniqueId val="{00000002-A327-45C4-892B-48A8704D344F}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3013,7 +3012,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-D15D-481C-89CB-C9AEA38F1290}"/>
+                  <c16:uniqueId val="{00000003-A327-45C4-892B-48A8704D344F}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3059,7 +3058,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-D15D-481C-89CB-C9AEA38F1290}"/>
+                  <c16:uniqueId val="{00000004-A327-45C4-892B-48A8704D344F}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3105,7 +3104,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-D15D-481C-89CB-C9AEA38F1290}"/>
+                  <c16:uniqueId val="{00000005-A327-45C4-892B-48A8704D344F}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3151,7 +3150,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-D15D-481C-89CB-C9AEA38F1290}"/>
+                  <c16:uniqueId val="{00000006-A327-45C4-892B-48A8704D344F}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3197,7 +3196,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-D15D-481C-89CB-C9AEA38F1290}"/>
+                  <c16:uniqueId val="{00000007-A327-45C4-892B-48A8704D344F}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3305,7 +3304,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-D15D-481C-89CB-C9AEA38F1290}"/>
+              <c16:uniqueId val="{00000008-A327-45C4-892B-48A8704D344F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3391,7 +3390,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2BDB13C-3476-45C0-AACD-21F200943E82}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EE06080-98B2-432E-8F30-F54074A4A910}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3431,10 +3430,10 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="71705" name="Chart 1">
+        <xdr:cNvPr id="71704" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91435CD0-85A3-4C1C-ADCB-21C7DA3FF93A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15FFEECB-07E1-476A-98EB-DE12997F23E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3857,7 +3856,7 @@
   <dimension ref="A1:S40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A35"/>
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3996,918 +3995,918 @@
       </c>
     </row>
     <row r="4" spans="1:19" s="18" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A4" s="64"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="40">
+      <c r="A4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="41">
         <f>SUM(B4,D4,F4,H4,J4,L4,N4,P4)</f>
         <v>0</v>
       </c>
-      <c r="S4" s="41">
+      <c r="S4" s="42">
         <f>SUM(C4,E4,G4,I4,K4,M4,O4,Q4)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:19" s="18" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A5" s="65"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="40">
+      <c r="A5" s="43"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="41">
         <f t="shared" ref="R5:R35" si="0">SUM(B5,D5,F5,H5,J5,L5,N5,P5)</f>
         <v>0</v>
       </c>
-      <c r="S5" s="41">
+      <c r="S5" s="42">
         <f t="shared" ref="S5:S35" si="1">SUM(C5,E5,G5,I5,K5,M5,O5,Q5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:19" s="18" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A6" s="65"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="40">
+      <c r="A6" s="43"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S6" s="41">
+      <c r="S6" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="18" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A7" s="65"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="40">
+      <c r="A7" s="43"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S7" s="41">
+      <c r="S7" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="18" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A8" s="65"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="40">
+      <c r="A8" s="43"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S8" s="41">
+      <c r="S8" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:19" s="18" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A9" s="65"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="40">
+      <c r="A9" s="43"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S9" s="41">
+      <c r="S9" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:19" s="18" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A10" s="65"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="40">
+      <c r="A10" s="43"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S10" s="41">
+      <c r="S10" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:19" s="18" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A11" s="65"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="40">
+      <c r="A11" s="43"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S11" s="41">
+      <c r="S11" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:19" s="18" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A12" s="65"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="40">
+      <c r="A12" s="43"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S12" s="41">
+      <c r="S12" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="18" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A13" s="65"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="40">
+      <c r="A13" s="43"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S13" s="41">
+      <c r="S13" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="66"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="40">
+      <c r="A14" s="44"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S14" s="41">
+      <c r="S14" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="66"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="40">
+      <c r="A15" s="44"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S15" s="41">
+      <c r="S15" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="66"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="40">
+      <c r="A16" s="44"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S16" s="41">
+      <c r="S16" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="66"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="40">
+      <c r="A17" s="44"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S17" s="41">
+      <c r="S17" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="66"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="40">
+      <c r="A18" s="44"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S18" s="41">
+      <c r="S18" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="66"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="40">
+      <c r="A19" s="44"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S19" s="41">
+      <c r="S19" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="66"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="40">
+      <c r="A20" s="44"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S20" s="41">
+      <c r="S20" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:19">
-      <c r="A21" s="66"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="40">
+      <c r="A21" s="44"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S21" s="41">
+      <c r="S21" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="66"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="40">
+      <c r="A22" s="44"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S22" s="41">
+      <c r="S22" s="42">
         <f>SUM(C22,E22,G22,I22,K22,M22,O22,Q22)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" s="66"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="40">
+      <c r="A23" s="44"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S23" s="41">
+      <c r="S23" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:19">
-      <c r="A24" s="66"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="40">
+      <c r="A24" s="44"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S24" s="41">
+      <c r="S24" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:19">
-      <c r="A25" s="66"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="39"/>
-      <c r="O25" s="39"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="39"/>
-      <c r="R25" s="40">
+      <c r="A25" s="44"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="41">
         <f>SUM(B25,D25,F25,H25,J25,L25,N25,P25)</f>
         <v>0</v>
       </c>
-      <c r="S25" s="41">
+      <c r="S25" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:19">
-      <c r="A26" s="66"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="39"/>
-      <c r="O26" s="39"/>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="39"/>
-      <c r="R26" s="40">
+      <c r="A26" s="44"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S26" s="41">
+      <c r="S26" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:19">
-      <c r="A27" s="66"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="40">
+      <c r="A27" s="44"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S27" s="41">
+      <c r="S27" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:19">
-      <c r="A28" s="66"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="39"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="39"/>
-      <c r="Q28" s="39"/>
-      <c r="R28" s="40">
+      <c r="A28" s="44"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S28" s="41">
+      <c r="S28" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:19">
-      <c r="A29" s="66"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="39"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="39"/>
-      <c r="R29" s="40">
+      <c r="A29" s="44"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S29" s="41">
+      <c r="S29" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:19">
-      <c r="A30" s="66"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="39"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="39"/>
-      <c r="R30" s="40">
+      <c r="A30" s="44"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S30" s="41">
+      <c r="S30" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:19">
-      <c r="A31" s="66"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="39"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="39"/>
-      <c r="R31" s="40">
+      <c r="A31" s="44"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S31" s="41">
+      <c r="S31" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:19">
-      <c r="A32" s="66"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="43"/>
-      <c r="N32" s="43"/>
-      <c r="O32" s="43"/>
-      <c r="P32" s="43"/>
-      <c r="Q32" s="43"/>
-      <c r="R32" s="40">
+      <c r="A32" s="44"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="46"/>
+      <c r="P32" s="46"/>
+      <c r="Q32" s="46"/>
+      <c r="R32" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S32" s="41">
+      <c r="S32" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:19">
-      <c r="A33" s="66"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="43"/>
-      <c r="M33" s="43"/>
-      <c r="N33" s="43"/>
-      <c r="O33" s="43"/>
-      <c r="P33" s="43"/>
-      <c r="Q33" s="43"/>
-      <c r="R33" s="40">
+      <c r="A33" s="44"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="46"/>
+      <c r="N33" s="46"/>
+      <c r="O33" s="46"/>
+      <c r="P33" s="46"/>
+      <c r="Q33" s="46"/>
+      <c r="R33" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S33" s="41">
+      <c r="S33" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:19">
-      <c r="A34" s="66"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="43"/>
-      <c r="M34" s="43"/>
-      <c r="N34" s="43"/>
-      <c r="O34" s="43"/>
-      <c r="P34" s="43"/>
-      <c r="Q34" s="43"/>
-      <c r="R34" s="40">
+      <c r="A34" s="44"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="46"/>
+      <c r="M34" s="46"/>
+      <c r="N34" s="46"/>
+      <c r="O34" s="46"/>
+      <c r="P34" s="46"/>
+      <c r="Q34" s="46"/>
+      <c r="R34" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S34" s="41">
+      <c r="S34" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:19">
-      <c r="A35" s="66"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="43"/>
-      <c r="M35" s="43"/>
-      <c r="N35" s="43"/>
-      <c r="O35" s="43"/>
-      <c r="P35" s="43"/>
-      <c r="Q35" s="43"/>
-      <c r="R35" s="40">
+      <c r="A35" s="44"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="46"/>
+      <c r="M35" s="46"/>
+      <c r="N35" s="46"/>
+      <c r="O35" s="46"/>
+      <c r="P35" s="46"/>
+      <c r="Q35" s="46"/>
+      <c r="R35" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S35" s="41">
+      <c r="S35" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:19" ht="17.25" thickBot="1">
-      <c r="A36" s="44" t="s">
+      <c r="A36" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="B36" s="45">
+      <c r="B36" s="48">
         <f>SUM(B4:B35)</f>
         <v>0</v>
       </c>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45">
+      <c r="C36" s="48"/>
+      <c r="D36" s="48">
         <f>SUM(D4:D35)</f>
         <v>0</v>
       </c>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45">
+      <c r="E36" s="48"/>
+      <c r="F36" s="48">
         <f>SUM(F4:F35)</f>
         <v>0</v>
       </c>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45">
+      <c r="G36" s="48"/>
+      <c r="H36" s="48">
         <f>SUM(H4:H35)</f>
         <v>0</v>
       </c>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45">
+      <c r="I36" s="48"/>
+      <c r="J36" s="48">
         <f>SUM(J4:J35)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="45"/>
-      <c r="L36" s="45">
+      <c r="K36" s="48"/>
+      <c r="L36" s="48">
         <f>SUM(L4:L35)</f>
         <v>0</v>
       </c>
-      <c r="M36" s="45"/>
-      <c r="N36" s="45">
+      <c r="M36" s="48"/>
+      <c r="N36" s="48">
         <f>SUM(N4:N35)</f>
         <v>0</v>
       </c>
-      <c r="O36" s="45"/>
-      <c r="P36" s="45">
+      <c r="O36" s="48"/>
+      <c r="P36" s="48">
         <f>SUM(P4:P35)</f>
         <v>0</v>
       </c>
-      <c r="Q36" s="45"/>
-      <c r="R36" s="45">
+      <c r="Q36" s="48"/>
+      <c r="R36" s="48">
         <f>B36+D36+F36+H36+J36+P36+L36+N36</f>
         <v>0</v>
       </c>
-      <c r="S36" s="46"/>
+      <c r="S36" s="49"/>
     </row>
     <row r="37" spans="1:19" ht="17.25" thickBot="1">
       <c r="A37" s="15" t="s">
@@ -5098,43 +5097,43 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="22"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48">
+      <c r="B3" s="50"/>
+      <c r="C3" s="51">
         <f t="shared" ref="C3:C16" si="0">B3*$C$36</f>
         <v>0</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="48">
+      <c r="D3" s="52"/>
+      <c r="E3" s="51">
         <f t="shared" ref="E3:E34" si="1">D3*$E$36</f>
         <v>0</v>
       </c>
-      <c r="F3" s="50"/>
-      <c r="G3" s="48">
+      <c r="F3" s="53"/>
+      <c r="G3" s="51">
         <f t="shared" ref="G3:G15" si="2">F3*$G$36</f>
         <v>0</v>
       </c>
-      <c r="H3" s="50"/>
-      <c r="I3" s="48">
+      <c r="H3" s="53"/>
+      <c r="I3" s="51">
         <f t="shared" ref="I3:I34" si="3">H3*$I$36</f>
         <v>0</v>
       </c>
-      <c r="J3" s="50"/>
-      <c r="K3" s="48">
+      <c r="J3" s="53"/>
+      <c r="K3" s="51">
         <f t="shared" ref="K3:K34" si="4">J3*$K$36</f>
         <v>0</v>
       </c>
-      <c r="L3" s="51"/>
-      <c r="M3" s="52">
+      <c r="L3" s="54"/>
+      <c r="M3" s="55">
         <f>L3*$M$36</f>
         <v>0</v>
       </c>
-      <c r="N3" s="50"/>
-      <c r="O3" s="48">
+      <c r="N3" s="53"/>
+      <c r="O3" s="51">
         <f>N3*$O$36</f>
         <v>0</v>
       </c>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="54">
+      <c r="P3" s="56"/>
+      <c r="Q3" s="57">
         <f>P3*$Q$36</f>
         <v>0</v>
       </c>
@@ -5143,43 +5142,43 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="22"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48">
+      <c r="B4" s="50"/>
+      <c r="C4" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="48">
+      <c r="D4" s="58"/>
+      <c r="E4" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F4" s="56"/>
-      <c r="G4" s="48">
+      <c r="F4" s="59"/>
+      <c r="G4" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H4" s="56"/>
-      <c r="I4" s="48">
+      <c r="H4" s="59"/>
+      <c r="I4" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J4" s="56"/>
-      <c r="K4" s="48">
+      <c r="J4" s="59"/>
+      <c r="K4" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L4" s="57"/>
-      <c r="M4" s="52">
+      <c r="L4" s="60"/>
+      <c r="M4" s="55">
         <f t="shared" ref="M4:M34" si="5">L4*$M$36</f>
         <v>0</v>
       </c>
-      <c r="N4" s="56"/>
-      <c r="O4" s="48">
+      <c r="N4" s="59"/>
+      <c r="O4" s="51">
         <f t="shared" ref="O4:O34" si="6">N4*$O$36</f>
         <v>0</v>
       </c>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="54">
+      <c r="P4" s="61"/>
+      <c r="Q4" s="57">
         <f t="shared" ref="Q4:Q34" si="7">P4*$Q$36</f>
         <v>0</v>
       </c>
@@ -5188,43 +5187,43 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="22"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="48">
+      <c r="B5" s="50"/>
+      <c r="C5" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="48">
+      <c r="D5" s="58"/>
+      <c r="E5" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F5" s="59"/>
-      <c r="G5" s="48">
+      <c r="F5" s="62"/>
+      <c r="G5" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H5" s="59"/>
-      <c r="I5" s="48">
+      <c r="H5" s="62"/>
+      <c r="I5" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J5" s="59"/>
-      <c r="K5" s="48">
+      <c r="J5" s="62"/>
+      <c r="K5" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L5" s="60"/>
-      <c r="M5" s="52">
+      <c r="L5" s="63"/>
+      <c r="M5" s="55">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N5" s="59"/>
-      <c r="O5" s="48">
+      <c r="N5" s="62"/>
+      <c r="O5" s="51">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="54">
+      <c r="P5" s="64"/>
+      <c r="Q5" s="57">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -5233,43 +5232,43 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="22"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="48">
+      <c r="B6" s="50"/>
+      <c r="C6" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="48">
+      <c r="D6" s="58"/>
+      <c r="E6" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F6" s="59"/>
-      <c r="G6" s="48">
+      <c r="F6" s="62"/>
+      <c r="G6" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H6" s="59"/>
-      <c r="I6" s="48">
+      <c r="H6" s="62"/>
+      <c r="I6" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="48">
+      <c r="J6" s="62"/>
+      <c r="K6" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L6" s="60"/>
-      <c r="M6" s="52">
+      <c r="L6" s="63"/>
+      <c r="M6" s="55">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N6" s="59"/>
-      <c r="O6" s="48">
+      <c r="N6" s="62"/>
+      <c r="O6" s="51">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="54">
+      <c r="P6" s="64"/>
+      <c r="Q6" s="57">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -5278,43 +5277,43 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="22"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="48">
+      <c r="B7" s="65"/>
+      <c r="C7" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="48">
+      <c r="D7" s="58"/>
+      <c r="E7" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F7" s="59"/>
-      <c r="G7" s="48">
+      <c r="F7" s="62"/>
+      <c r="G7" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="48">
+      <c r="H7" s="62"/>
+      <c r="I7" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J7" s="59"/>
-      <c r="K7" s="48">
+      <c r="J7" s="62"/>
+      <c r="K7" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L7" s="60"/>
-      <c r="M7" s="52">
+      <c r="L7" s="63"/>
+      <c r="M7" s="55">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N7" s="59"/>
-      <c r="O7" s="48">
+      <c r="N7" s="62"/>
+      <c r="O7" s="51">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="54">
+      <c r="P7" s="64"/>
+      <c r="Q7" s="57">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -5323,43 +5322,43 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="22"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="48">
+      <c r="B8" s="50"/>
+      <c r="C8" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="48">
+      <c r="D8" s="58"/>
+      <c r="E8" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F8" s="59"/>
-      <c r="G8" s="48">
+      <c r="F8" s="62"/>
+      <c r="G8" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H8" s="59"/>
-      <c r="I8" s="48">
+      <c r="H8" s="62"/>
+      <c r="I8" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J8" s="59"/>
-      <c r="K8" s="48">
+      <c r="J8" s="62"/>
+      <c r="K8" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L8" s="60"/>
-      <c r="M8" s="52">
+      <c r="L8" s="63"/>
+      <c r="M8" s="55">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N8" s="59"/>
-      <c r="O8" s="48">
+      <c r="N8" s="62"/>
+      <c r="O8" s="51">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="54">
+      <c r="P8" s="64"/>
+      <c r="Q8" s="57">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -5368,43 +5367,43 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="22"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="48">
+      <c r="B9" s="50"/>
+      <c r="C9" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D9" s="55"/>
-      <c r="E9" s="48">
+      <c r="D9" s="58"/>
+      <c r="E9" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F9" s="59"/>
-      <c r="G9" s="48">
+      <c r="F9" s="62"/>
+      <c r="G9" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H9" s="59"/>
-      <c r="I9" s="48">
+      <c r="H9" s="62"/>
+      <c r="I9" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J9" s="59"/>
-      <c r="K9" s="48">
+      <c r="J9" s="62"/>
+      <c r="K9" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L9" s="60"/>
-      <c r="M9" s="52">
+      <c r="L9" s="63"/>
+      <c r="M9" s="55">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N9" s="59"/>
-      <c r="O9" s="48">
+      <c r="N9" s="62"/>
+      <c r="O9" s="51">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="54">
+      <c r="P9" s="64"/>
+      <c r="Q9" s="57">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -5413,43 +5412,43 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="22"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="48">
+      <c r="B10" s="50"/>
+      <c r="C10" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D10" s="55"/>
-      <c r="E10" s="48">
+      <c r="D10" s="58"/>
+      <c r="E10" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F10" s="59"/>
-      <c r="G10" s="48">
+      <c r="F10" s="62"/>
+      <c r="G10" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H10" s="59"/>
-      <c r="I10" s="48">
+      <c r="H10" s="62"/>
+      <c r="I10" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J10" s="59"/>
-      <c r="K10" s="48">
+      <c r="J10" s="62"/>
+      <c r="K10" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L10" s="60"/>
-      <c r="M10" s="52">
+      <c r="L10" s="63"/>
+      <c r="M10" s="55">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N10" s="59"/>
-      <c r="O10" s="48">
+      <c r="N10" s="62"/>
+      <c r="O10" s="51">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="54">
+      <c r="P10" s="64"/>
+      <c r="Q10" s="57">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -5458,43 +5457,43 @@
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="22"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="48">
+      <c r="B11" s="50"/>
+      <c r="C11" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D11" s="55"/>
-      <c r="E11" s="48">
+      <c r="D11" s="58"/>
+      <c r="E11" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F11" s="59"/>
-      <c r="G11" s="48">
+      <c r="F11" s="62"/>
+      <c r="G11" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H11" s="59"/>
-      <c r="I11" s="48">
+      <c r="H11" s="62"/>
+      <c r="I11" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J11" s="59"/>
-      <c r="K11" s="48">
+      <c r="J11" s="62"/>
+      <c r="K11" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L11" s="60"/>
-      <c r="M11" s="52">
+      <c r="L11" s="63"/>
+      <c r="M11" s="55">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N11" s="59"/>
-      <c r="O11" s="48">
+      <c r="N11" s="62"/>
+      <c r="O11" s="51">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="54">
+      <c r="P11" s="64"/>
+      <c r="Q11" s="57">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -5503,43 +5502,43 @@
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="22"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="48">
+      <c r="B12" s="50"/>
+      <c r="C12" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="48">
+      <c r="D12" s="58"/>
+      <c r="E12" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F12" s="59"/>
-      <c r="G12" s="48">
+      <c r="F12" s="62"/>
+      <c r="G12" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H12" s="59"/>
-      <c r="I12" s="48">
+      <c r="H12" s="62"/>
+      <c r="I12" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J12" s="59"/>
-      <c r="K12" s="48">
+      <c r="J12" s="62"/>
+      <c r="K12" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L12" s="60"/>
-      <c r="M12" s="52">
+      <c r="L12" s="63"/>
+      <c r="M12" s="55">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N12" s="59"/>
-      <c r="O12" s="48">
+      <c r="N12" s="62"/>
+      <c r="O12" s="51">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="54">
+      <c r="P12" s="64"/>
+      <c r="Q12" s="57">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -5548,43 +5547,43 @@
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="22"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="48">
+      <c r="B13" s="50"/>
+      <c r="C13" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D13" s="55"/>
-      <c r="E13" s="48">
+      <c r="D13" s="58"/>
+      <c r="E13" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F13" s="59"/>
-      <c r="G13" s="48">
+      <c r="F13" s="62"/>
+      <c r="G13" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H13" s="59"/>
-      <c r="I13" s="48">
+      <c r="H13" s="62"/>
+      <c r="I13" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J13" s="59"/>
-      <c r="K13" s="48">
+      <c r="J13" s="62"/>
+      <c r="K13" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L13" s="60"/>
-      <c r="M13" s="52">
+      <c r="L13" s="63"/>
+      <c r="M13" s="55">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N13" s="59"/>
-      <c r="O13" s="48">
+      <c r="N13" s="62"/>
+      <c r="O13" s="51">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="54">
+      <c r="P13" s="64"/>
+      <c r="Q13" s="57">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -5593,43 +5592,43 @@
     </row>
     <row r="14" spans="1:19" ht="16.5" customHeight="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="48">
+      <c r="B14" s="66"/>
+      <c r="C14" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="48">
+      <c r="D14" s="52"/>
+      <c r="E14" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F14" s="56"/>
-      <c r="G14" s="48">
+      <c r="F14" s="59"/>
+      <c r="G14" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H14" s="56"/>
-      <c r="I14" s="48">
+      <c r="H14" s="59"/>
+      <c r="I14" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J14" s="56"/>
-      <c r="K14" s="48">
+      <c r="J14" s="59"/>
+      <c r="K14" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L14" s="57"/>
-      <c r="M14" s="52">
+      <c r="L14" s="60"/>
+      <c r="M14" s="55">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N14" s="56"/>
-      <c r="O14" s="48">
+      <c r="N14" s="59"/>
+      <c r="O14" s="51">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P14" s="58"/>
-      <c r="Q14" s="54">
+      <c r="P14" s="61"/>
+      <c r="Q14" s="57">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -5638,43 +5637,43 @@
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="22"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="48">
+      <c r="B15" s="66"/>
+      <c r="C15" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="48">
+      <c r="D15" s="52"/>
+      <c r="E15" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F15" s="56"/>
-      <c r="G15" s="48">
+      <c r="F15" s="59"/>
+      <c r="G15" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H15" s="59"/>
-      <c r="I15" s="48">
+      <c r="H15" s="62"/>
+      <c r="I15" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J15" s="56"/>
-      <c r="K15" s="48">
+      <c r="J15" s="59"/>
+      <c r="K15" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L15" s="57"/>
-      <c r="M15" s="52">
+      <c r="L15" s="60"/>
+      <c r="M15" s="55">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N15" s="56"/>
-      <c r="O15" s="48">
+      <c r="N15" s="59"/>
+      <c r="O15" s="51">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="54">
+      <c r="P15" s="61"/>
+      <c r="Q15" s="57">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -5683,43 +5682,43 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="22"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="48">
+      <c r="B16" s="66"/>
+      <c r="C16" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D16" s="49"/>
-      <c r="E16" s="48">
+      <c r="D16" s="52"/>
+      <c r="E16" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F16" s="56"/>
-      <c r="G16" s="48">
+      <c r="F16" s="59"/>
+      <c r="G16" s="51">
         <f>F16*$G$36</f>
         <v>0</v>
       </c>
-      <c r="H16" s="59"/>
-      <c r="I16" s="48">
+      <c r="H16" s="62"/>
+      <c r="I16" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J16" s="56"/>
-      <c r="K16" s="48">
+      <c r="J16" s="59"/>
+      <c r="K16" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L16" s="57"/>
-      <c r="M16" s="52">
+      <c r="L16" s="60"/>
+      <c r="M16" s="55">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N16" s="56"/>
-      <c r="O16" s="48">
+      <c r="N16" s="59"/>
+      <c r="O16" s="51">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P16" s="58"/>
-      <c r="Q16" s="54">
+      <c r="P16" s="61"/>
+      <c r="Q16" s="57">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -5728,43 +5727,43 @@
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="22"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="48">
+      <c r="B17" s="66"/>
+      <c r="C17" s="51">
         <f t="shared" ref="C17:C34" si="8">B17*$C$36</f>
         <v>0</v>
       </c>
-      <c r="D17" s="49"/>
-      <c r="E17" s="48">
+      <c r="D17" s="52"/>
+      <c r="E17" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F17" s="56"/>
-      <c r="G17" s="48">
+      <c r="F17" s="59"/>
+      <c r="G17" s="51">
         <f t="shared" ref="G17:G34" si="9">F17*$G$36</f>
         <v>0</v>
       </c>
-      <c r="H17" s="59"/>
-      <c r="I17" s="48">
+      <c r="H17" s="62"/>
+      <c r="I17" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J17" s="56"/>
-      <c r="K17" s="48">
+      <c r="J17" s="59"/>
+      <c r="K17" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L17" s="57"/>
-      <c r="M17" s="52">
+      <c r="L17" s="60"/>
+      <c r="M17" s="55">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N17" s="56"/>
-      <c r="O17" s="48">
+      <c r="N17" s="59"/>
+      <c r="O17" s="51">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P17" s="58"/>
-      <c r="Q17" s="54">
+      <c r="P17" s="61"/>
+      <c r="Q17" s="57">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -5773,43 +5772,43 @@
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="22"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="48">
+      <c r="B18" s="66"/>
+      <c r="C18" s="51">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D18" s="49"/>
-      <c r="E18" s="48">
+      <c r="D18" s="52"/>
+      <c r="E18" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F18" s="56"/>
-      <c r="G18" s="48">
+      <c r="F18" s="59"/>
+      <c r="G18" s="51">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H18" s="59"/>
-      <c r="I18" s="48">
+      <c r="H18" s="62"/>
+      <c r="I18" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J18" s="56"/>
-      <c r="K18" s="48">
+      <c r="J18" s="59"/>
+      <c r="K18" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L18" s="57"/>
-      <c r="M18" s="52">
+      <c r="L18" s="60"/>
+      <c r="M18" s="55">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N18" s="56"/>
-      <c r="O18" s="48">
+      <c r="N18" s="59"/>
+      <c r="O18" s="51">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P18" s="58"/>
-      <c r="Q18" s="54">
+      <c r="P18" s="61"/>
+      <c r="Q18" s="57">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -5818,43 +5817,43 @@
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="22"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="48">
+      <c r="B19" s="66"/>
+      <c r="C19" s="51">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D19" s="49"/>
-      <c r="E19" s="48">
+      <c r="D19" s="52"/>
+      <c r="E19" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F19" s="56"/>
-      <c r="G19" s="48">
+      <c r="F19" s="59"/>
+      <c r="G19" s="51">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H19" s="59"/>
-      <c r="I19" s="48">
+      <c r="H19" s="62"/>
+      <c r="I19" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J19" s="56"/>
-      <c r="K19" s="48">
+      <c r="J19" s="59"/>
+      <c r="K19" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L19" s="57"/>
-      <c r="M19" s="52">
+      <c r="L19" s="60"/>
+      <c r="M19" s="55">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N19" s="56"/>
-      <c r="O19" s="48">
+      <c r="N19" s="59"/>
+      <c r="O19" s="51">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P19" s="58"/>
-      <c r="Q19" s="54">
+      <c r="P19" s="61"/>
+      <c r="Q19" s="57">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -5863,43 +5862,43 @@
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="22"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="48">
+      <c r="B20" s="66"/>
+      <c r="C20" s="51">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D20" s="49"/>
-      <c r="E20" s="48">
+      <c r="D20" s="52"/>
+      <c r="E20" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F20" s="56"/>
-      <c r="G20" s="48">
+      <c r="F20" s="59"/>
+      <c r="G20" s="51">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H20" s="59"/>
-      <c r="I20" s="48">
+      <c r="H20" s="62"/>
+      <c r="I20" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J20" s="56"/>
-      <c r="K20" s="48">
+      <c r="J20" s="59"/>
+      <c r="K20" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L20" s="57"/>
-      <c r="M20" s="52">
+      <c r="L20" s="60"/>
+      <c r="M20" s="55">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N20" s="56"/>
-      <c r="O20" s="48">
+      <c r="N20" s="59"/>
+      <c r="O20" s="51">
         <f>N20*$O$36</f>
         <v>0</v>
       </c>
-      <c r="P20" s="58"/>
-      <c r="Q20" s="54">
+      <c r="P20" s="61"/>
+      <c r="Q20" s="57">
         <f>P20*$Q$36</f>
         <v>0</v>
       </c>
@@ -5908,43 +5907,43 @@
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="22"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="48">
+      <c r="B21" s="66"/>
+      <c r="C21" s="51">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D21" s="49"/>
-      <c r="E21" s="48">
+      <c r="D21" s="52"/>
+      <c r="E21" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F21" s="56"/>
-      <c r="G21" s="48">
+      <c r="F21" s="59"/>
+      <c r="G21" s="51">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H21" s="59"/>
-      <c r="I21" s="48">
+      <c r="H21" s="62"/>
+      <c r="I21" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J21" s="56"/>
-      <c r="K21" s="48">
+      <c r="J21" s="59"/>
+      <c r="K21" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L21" s="57"/>
-      <c r="M21" s="52">
+      <c r="L21" s="60"/>
+      <c r="M21" s="55">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N21" s="56"/>
-      <c r="O21" s="48">
+      <c r="N21" s="59"/>
+      <c r="O21" s="51">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P21" s="58"/>
-      <c r="Q21" s="54">
+      <c r="P21" s="61"/>
+      <c r="Q21" s="57">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -5953,43 +5952,43 @@
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="22"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="48">
+      <c r="B22" s="66"/>
+      <c r="C22" s="51">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D22" s="49"/>
-      <c r="E22" s="48">
+      <c r="D22" s="52"/>
+      <c r="E22" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F22" s="56"/>
-      <c r="G22" s="48">
+      <c r="F22" s="59"/>
+      <c r="G22" s="51">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H22" s="59"/>
-      <c r="I22" s="48">
+      <c r="H22" s="62"/>
+      <c r="I22" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J22" s="56"/>
-      <c r="K22" s="48">
+      <c r="J22" s="59"/>
+      <c r="K22" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L22" s="57"/>
-      <c r="M22" s="52">
+      <c r="L22" s="60"/>
+      <c r="M22" s="55">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N22" s="56"/>
-      <c r="O22" s="48">
+      <c r="N22" s="59"/>
+      <c r="O22" s="51">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P22" s="58"/>
-      <c r="Q22" s="54">
+      <c r="P22" s="61"/>
+      <c r="Q22" s="57">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -5998,43 +5997,43 @@
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="22"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="48">
+      <c r="B23" s="66"/>
+      <c r="C23" s="51">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D23" s="49"/>
-      <c r="E23" s="48">
+      <c r="D23" s="52"/>
+      <c r="E23" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F23" s="56"/>
-      <c r="G23" s="48">
+      <c r="F23" s="59"/>
+      <c r="G23" s="51">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H23" s="59"/>
-      <c r="I23" s="48">
+      <c r="H23" s="62"/>
+      <c r="I23" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J23" s="56"/>
-      <c r="K23" s="48">
+      <c r="J23" s="59"/>
+      <c r="K23" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L23" s="57"/>
-      <c r="M23" s="52">
+      <c r="L23" s="60"/>
+      <c r="M23" s="55">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N23" s="56"/>
-      <c r="O23" s="48">
+      <c r="N23" s="59"/>
+      <c r="O23" s="51">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P23" s="58"/>
-      <c r="Q23" s="54">
+      <c r="P23" s="61"/>
+      <c r="Q23" s="57">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -6043,43 +6042,43 @@
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="22"/>
-      <c r="B24" s="63"/>
-      <c r="C24" s="48">
+      <c r="B24" s="66"/>
+      <c r="C24" s="51">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D24" s="49"/>
-      <c r="E24" s="48">
+      <c r="D24" s="52"/>
+      <c r="E24" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F24" s="56"/>
-      <c r="G24" s="48">
+      <c r="F24" s="59"/>
+      <c r="G24" s="51">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H24" s="59"/>
-      <c r="I24" s="48">
+      <c r="H24" s="62"/>
+      <c r="I24" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J24" s="56"/>
-      <c r="K24" s="48">
+      <c r="J24" s="59"/>
+      <c r="K24" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L24" s="57"/>
-      <c r="M24" s="52">
+      <c r="L24" s="60"/>
+      <c r="M24" s="55">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N24" s="56"/>
-      <c r="O24" s="48">
+      <c r="N24" s="59"/>
+      <c r="O24" s="51">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P24" s="58"/>
-      <c r="Q24" s="54">
+      <c r="P24" s="61"/>
+      <c r="Q24" s="57">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -6088,43 +6087,43 @@
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="22"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="48">
+      <c r="B25" s="66"/>
+      <c r="C25" s="51">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D25" s="49"/>
-      <c r="E25" s="48">
+      <c r="D25" s="52"/>
+      <c r="E25" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F25" s="56"/>
-      <c r="G25" s="48">
+      <c r="F25" s="59"/>
+      <c r="G25" s="51">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H25" s="59"/>
-      <c r="I25" s="48">
+      <c r="H25" s="62"/>
+      <c r="I25" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J25" s="56"/>
-      <c r="K25" s="48">
+      <c r="J25" s="59"/>
+      <c r="K25" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L25" s="57"/>
-      <c r="M25" s="52">
+      <c r="L25" s="60"/>
+      <c r="M25" s="55">
         <f>L25*$M$36</f>
         <v>0</v>
       </c>
-      <c r="N25" s="56"/>
-      <c r="O25" s="48">
+      <c r="N25" s="59"/>
+      <c r="O25" s="51">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P25" s="58"/>
-      <c r="Q25" s="54">
+      <c r="P25" s="61"/>
+      <c r="Q25" s="57">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -6133,43 +6132,43 @@
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="22"/>
-      <c r="B26" s="63"/>
-      <c r="C26" s="48">
+      <c r="B26" s="66"/>
+      <c r="C26" s="51">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D26" s="49"/>
-      <c r="E26" s="48">
+      <c r="D26" s="52"/>
+      <c r="E26" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F26" s="56"/>
-      <c r="G26" s="48">
+      <c r="F26" s="59"/>
+      <c r="G26" s="51">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H26" s="59"/>
-      <c r="I26" s="48">
+      <c r="H26" s="62"/>
+      <c r="I26" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J26" s="56"/>
-      <c r="K26" s="48">
+      <c r="J26" s="59"/>
+      <c r="K26" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L26" s="57"/>
-      <c r="M26" s="52">
+      <c r="L26" s="60"/>
+      <c r="M26" s="55">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N26" s="56"/>
-      <c r="O26" s="48">
+      <c r="N26" s="59"/>
+      <c r="O26" s="51">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P26" s="58"/>
-      <c r="Q26" s="54">
+      <c r="P26" s="61"/>
+      <c r="Q26" s="57">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -6178,43 +6177,43 @@
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="23"/>
-      <c r="B27" s="63"/>
-      <c r="C27" s="48">
+      <c r="B27" s="66"/>
+      <c r="C27" s="51">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D27" s="49"/>
-      <c r="E27" s="48">
+      <c r="D27" s="52"/>
+      <c r="E27" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F27" s="56"/>
-      <c r="G27" s="48">
+      <c r="F27" s="59"/>
+      <c r="G27" s="51">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H27" s="59"/>
-      <c r="I27" s="48">
+      <c r="H27" s="62"/>
+      <c r="I27" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J27" s="56"/>
-      <c r="K27" s="48">
+      <c r="J27" s="59"/>
+      <c r="K27" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L27" s="57"/>
-      <c r="M27" s="52">
+      <c r="L27" s="60"/>
+      <c r="M27" s="55">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N27" s="56"/>
-      <c r="O27" s="48">
+      <c r="N27" s="59"/>
+      <c r="O27" s="51">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P27" s="58"/>
-      <c r="Q27" s="54">
+      <c r="P27" s="61"/>
+      <c r="Q27" s="57">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -6223,43 +6222,43 @@
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="23"/>
-      <c r="B28" s="63"/>
-      <c r="C28" s="48">
+      <c r="B28" s="66"/>
+      <c r="C28" s="51">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D28" s="49"/>
-      <c r="E28" s="48">
+      <c r="D28" s="52"/>
+      <c r="E28" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F28" s="56"/>
-      <c r="G28" s="48">
+      <c r="F28" s="59"/>
+      <c r="G28" s="51">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H28" s="59"/>
-      <c r="I28" s="48">
+      <c r="H28" s="62"/>
+      <c r="I28" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J28" s="56"/>
-      <c r="K28" s="48">
+      <c r="J28" s="59"/>
+      <c r="K28" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L28" s="57"/>
-      <c r="M28" s="52">
+      <c r="L28" s="60"/>
+      <c r="M28" s="55">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N28" s="56"/>
-      <c r="O28" s="48">
+      <c r="N28" s="59"/>
+      <c r="O28" s="51">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P28" s="58"/>
-      <c r="Q28" s="54">
+      <c r="P28" s="61"/>
+      <c r="Q28" s="57">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -6268,43 +6267,43 @@
     </row>
     <row r="29" spans="1:19">
       <c r="A29" s="23"/>
-      <c r="B29" s="63"/>
-      <c r="C29" s="48">
+      <c r="B29" s="66"/>
+      <c r="C29" s="51">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D29" s="49"/>
-      <c r="E29" s="48">
+      <c r="D29" s="52"/>
+      <c r="E29" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F29" s="56"/>
-      <c r="G29" s="48">
+      <c r="F29" s="59"/>
+      <c r="G29" s="51">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H29" s="56"/>
-      <c r="I29" s="48">
+      <c r="H29" s="59"/>
+      <c r="I29" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J29" s="56"/>
-      <c r="K29" s="48">
+      <c r="J29" s="59"/>
+      <c r="K29" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L29" s="57"/>
-      <c r="M29" s="52">
+      <c r="L29" s="60"/>
+      <c r="M29" s="55">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N29" s="56"/>
-      <c r="O29" s="48">
+      <c r="N29" s="59"/>
+      <c r="O29" s="51">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P29" s="58"/>
-      <c r="Q29" s="54">
+      <c r="P29" s="61"/>
+      <c r="Q29" s="57">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -6313,43 +6312,43 @@
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="23"/>
-      <c r="B30" s="63"/>
-      <c r="C30" s="48">
+      <c r="B30" s="66"/>
+      <c r="C30" s="51">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D30" s="49"/>
-      <c r="E30" s="48">
+      <c r="D30" s="52"/>
+      <c r="E30" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F30" s="56"/>
-      <c r="G30" s="48">
+      <c r="F30" s="59"/>
+      <c r="G30" s="51">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H30" s="59"/>
-      <c r="I30" s="48">
+      <c r="H30" s="62"/>
+      <c r="I30" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J30" s="56"/>
-      <c r="K30" s="48">
+      <c r="J30" s="59"/>
+      <c r="K30" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L30" s="57"/>
-      <c r="M30" s="52">
+      <c r="L30" s="60"/>
+      <c r="M30" s="55">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N30" s="56"/>
-      <c r="O30" s="48">
+      <c r="N30" s="59"/>
+      <c r="O30" s="51">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P30" s="58"/>
-      <c r="Q30" s="54">
+      <c r="P30" s="61"/>
+      <c r="Q30" s="57">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -6358,43 +6357,43 @@
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="23"/>
-      <c r="B31" s="63"/>
-      <c r="C31" s="48">
+      <c r="B31" s="66"/>
+      <c r="C31" s="51">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D31" s="49"/>
-      <c r="E31" s="48">
+      <c r="D31" s="52"/>
+      <c r="E31" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F31" s="56"/>
-      <c r="G31" s="48">
+      <c r="F31" s="59"/>
+      <c r="G31" s="51">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H31" s="59"/>
-      <c r="I31" s="48">
+      <c r="H31" s="62"/>
+      <c r="I31" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J31" s="56"/>
-      <c r="K31" s="48">
+      <c r="J31" s="59"/>
+      <c r="K31" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L31" s="57"/>
-      <c r="M31" s="52">
+      <c r="L31" s="60"/>
+      <c r="M31" s="55">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N31" s="56"/>
-      <c r="O31" s="48">
+      <c r="N31" s="59"/>
+      <c r="O31" s="51">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P31" s="58"/>
-      <c r="Q31" s="54">
+      <c r="P31" s="61"/>
+      <c r="Q31" s="57">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -6403,43 +6402,43 @@
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="23"/>
-      <c r="B32" s="63"/>
-      <c r="C32" s="48">
+      <c r="B32" s="66"/>
+      <c r="C32" s="51">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D32" s="49"/>
-      <c r="E32" s="48">
+      <c r="D32" s="52"/>
+      <c r="E32" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F32" s="56"/>
-      <c r="G32" s="48">
+      <c r="F32" s="59"/>
+      <c r="G32" s="51">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H32" s="59"/>
-      <c r="I32" s="48">
+      <c r="H32" s="62"/>
+      <c r="I32" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J32" s="56"/>
-      <c r="K32" s="48">
+      <c r="J32" s="59"/>
+      <c r="K32" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L32" s="57"/>
-      <c r="M32" s="52">
+      <c r="L32" s="60"/>
+      <c r="M32" s="55">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N32" s="56"/>
-      <c r="O32" s="48">
+      <c r="N32" s="59"/>
+      <c r="O32" s="51">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P32" s="58"/>
-      <c r="Q32" s="54">
+      <c r="P32" s="61"/>
+      <c r="Q32" s="57">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -6448,43 +6447,43 @@
     </row>
     <row r="33" spans="1:19">
       <c r="A33" s="23"/>
-      <c r="B33" s="63"/>
-      <c r="C33" s="48">
+      <c r="B33" s="66"/>
+      <c r="C33" s="51">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D33" s="49"/>
-      <c r="E33" s="48">
+      <c r="D33" s="52"/>
+      <c r="E33" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F33" s="56"/>
-      <c r="G33" s="48">
+      <c r="F33" s="59"/>
+      <c r="G33" s="51">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H33" s="56"/>
-      <c r="I33" s="48">
+      <c r="H33" s="59"/>
+      <c r="I33" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J33" s="56"/>
-      <c r="K33" s="48">
+      <c r="J33" s="59"/>
+      <c r="K33" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L33" s="57"/>
-      <c r="M33" s="52">
+      <c r="L33" s="60"/>
+      <c r="M33" s="55">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N33" s="56"/>
-      <c r="O33" s="48">
+      <c r="N33" s="59"/>
+      <c r="O33" s="51">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P33" s="58"/>
-      <c r="Q33" s="54">
+      <c r="P33" s="61"/>
+      <c r="Q33" s="57">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -6493,43 +6492,43 @@
     </row>
     <row r="34" spans="1:19">
       <c r="A34" s="22"/>
-      <c r="B34" s="63"/>
-      <c r="C34" s="48">
+      <c r="B34" s="66"/>
+      <c r="C34" s="51">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D34" s="49"/>
-      <c r="E34" s="48">
+      <c r="D34" s="52"/>
+      <c r="E34" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F34" s="56"/>
-      <c r="G34" s="48">
+      <c r="F34" s="59"/>
+      <c r="G34" s="51">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H34" s="56"/>
-      <c r="I34" s="48">
+      <c r="H34" s="59"/>
+      <c r="I34" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J34" s="56"/>
-      <c r="K34" s="48">
+      <c r="J34" s="59"/>
+      <c r="K34" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L34" s="57"/>
-      <c r="M34" s="52">
+      <c r="L34" s="60"/>
+      <c r="M34" s="55">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N34" s="56"/>
-      <c r="O34" s="48">
+      <c r="N34" s="59"/>
+      <c r="O34" s="51">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P34" s="58"/>
-      <c r="Q34" s="54">
+      <c r="P34" s="61"/>
+      <c r="Q34" s="57">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>

--- a/PhoenixCI/Excel_Template/30320.xlsx
+++ b/PhoenixCI/Excel_Template/30320.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Source\Repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E506BAD-F607-4243-AA70-361B17B0DF41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAD33175-AC74-4C64-B91B-2B72FA4FF7DE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="32760" windowWidth="15255" windowHeight="8595" tabRatio="599"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="599"/>
   </bookViews>
   <sheets>
     <sheet name="30320" sheetId="3" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -806,6 +807,45 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -843,45 +883,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -901,11 +902,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -984,8 +985,8 @@
     <xf numFmtId="178" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="183" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1016,10 +1017,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="189" fontId="32" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="189" fontId="32" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1032,25 +1029,18 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="189" fontId="32" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="189" fontId="32" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="189" fontId="32" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="189" fontId="32" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="189" fontId="32" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="189" fontId="33" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="189" fontId="32" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="33" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="189" fontId="34" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="189" fontId="34" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1066,15 +1056,15 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="32" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="32" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="35" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="35" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="187" fontId="35" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="187" fontId="35" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1082,7 +1072,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="188" fontId="35" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="188" fontId="35" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1116,9 +1106,20 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="32" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="32" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1128,7 +1129,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1167,18 +1168,18 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1393,7 +1394,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AA5B-41D6-837B-27E2E3B4AD5E}"/>
+              <c16:uniqueId val="{00000000-F070-404E-91EB-C93A489F7F06}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1551,7 +1552,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AA5B-41D6-837B-27E2E3B4AD5E}"/>
+              <c16:uniqueId val="{00000001-F070-404E-91EB-C93A489F7F06}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1709,7 +1710,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-AA5B-41D6-837B-27E2E3B4AD5E}"/>
+              <c16:uniqueId val="{00000002-F070-404E-91EB-C93A489F7F06}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1865,7 +1866,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-AA5B-41D6-837B-27E2E3B4AD5E}"/>
+              <c16:uniqueId val="{00000003-F070-404E-91EB-C93A489F7F06}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2021,7 +2022,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-AA5B-41D6-837B-27E2E3B4AD5E}"/>
+              <c16:uniqueId val="{00000004-F070-404E-91EB-C93A489F7F06}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2170,7 +2171,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-AA5B-41D6-837B-27E2E3B4AD5E}"/>
+              <c16:uniqueId val="{00000005-F070-404E-91EB-C93A489F7F06}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2296,7 +2297,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-AA5B-41D6-837B-27E2E3B4AD5E}"/>
+              <c16:uniqueId val="{00000006-F070-404E-91EB-C93A489F7F06}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2422,7 +2423,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-AA5B-41D6-837B-27E2E3B4AD5E}"/>
+              <c16:uniqueId val="{00000007-F070-404E-91EB-C93A489F7F06}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2436,11 +2437,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="392910744"/>
+        <c:axId val="300897984"/>
         <c:axId val="1"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="392910744"/>
+        <c:axId val="300897984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2530,7 +2531,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="392910744"/>
+        <c:crossAx val="300897984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="100"/>
@@ -2559,7 +2560,7 @@
           <c:x val="0.29222797927461142"/>
           <c:y val="7.6530612244897961E-2"/>
           <c:w val="0.42901554404145081"/>
-          <c:h val="0.35034013605442177"/>
+          <c:h val="0.35034013605442182"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2709,7 +2710,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-A327-45C4-892B-48A8704D344F}"/>
+                <c16:uniqueId val="{00000000-D15D-481C-89CB-C9AEA38F1290}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2729,7 +2730,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-A327-45C4-892B-48A8704D344F}"/>
+                <c16:uniqueId val="{00000001-D15D-481C-89CB-C9AEA38F1290}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2749,7 +2750,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-A327-45C4-892B-48A8704D344F}"/>
+                <c16:uniqueId val="{00000002-D15D-481C-89CB-C9AEA38F1290}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2769,7 +2770,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-A327-45C4-892B-48A8704D344F}"/>
+                <c16:uniqueId val="{00000003-D15D-481C-89CB-C9AEA38F1290}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2789,7 +2790,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-A327-45C4-892B-48A8704D344F}"/>
+                <c16:uniqueId val="{00000004-D15D-481C-89CB-C9AEA38F1290}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2809,7 +2810,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-A327-45C4-892B-48A8704D344F}"/>
+                <c16:uniqueId val="{00000005-D15D-481C-89CB-C9AEA38F1290}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2818,7 +2819,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-A327-45C4-892B-48A8704D344F}"/>
+                <c16:uniqueId val="{00000006-D15D-481C-89CB-C9AEA38F1290}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2827,7 +2828,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-A327-45C4-892B-48A8704D344F}"/>
+                <c16:uniqueId val="{00000007-D15D-481C-89CB-C9AEA38F1290}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2874,7 +2875,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-A327-45C4-892B-48A8704D344F}"/>
+                  <c16:uniqueId val="{00000000-D15D-481C-89CB-C9AEA38F1290}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2920,7 +2921,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-A327-45C4-892B-48A8704D344F}"/>
+                  <c16:uniqueId val="{00000001-D15D-481C-89CB-C9AEA38F1290}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2966,7 +2967,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-A327-45C4-892B-48A8704D344F}"/>
+                  <c16:uniqueId val="{00000002-D15D-481C-89CB-C9AEA38F1290}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3012,7 +3013,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-A327-45C4-892B-48A8704D344F}"/>
+                  <c16:uniqueId val="{00000003-D15D-481C-89CB-C9AEA38F1290}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3058,7 +3059,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-A327-45C4-892B-48A8704D344F}"/>
+                  <c16:uniqueId val="{00000004-D15D-481C-89CB-C9AEA38F1290}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3104,7 +3105,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-A327-45C4-892B-48A8704D344F}"/>
+                  <c16:uniqueId val="{00000005-D15D-481C-89CB-C9AEA38F1290}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3150,7 +3151,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-A327-45C4-892B-48A8704D344F}"/>
+                  <c16:uniqueId val="{00000006-D15D-481C-89CB-C9AEA38F1290}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3196,7 +3197,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-A327-45C4-892B-48A8704D344F}"/>
+                  <c16:uniqueId val="{00000007-D15D-481C-89CB-C9AEA38F1290}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3304,7 +3305,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-A327-45C4-892B-48A8704D344F}"/>
+              <c16:uniqueId val="{00000008-D15D-481C-89CB-C9AEA38F1290}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3390,7 +3391,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EE06080-98B2-432E-8F30-F54074A4A910}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2BDB13C-3476-45C0-AACD-21F200943E82}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3430,10 +3431,10 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="71704" name="Chart 1">
+        <xdr:cNvPr id="71705" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15FFEECB-07E1-476A-98EB-DE12997F23E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91435CD0-85A3-4C1C-ADCB-21C7DA3FF93A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3856,7 +3857,7 @@
   <dimension ref="A1:S40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+      <selection activeCell="A4" sqref="A4:A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3995,918 +3996,918 @@
       </c>
     </row>
     <row r="4" spans="1:19" s="18" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A4" s="39"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="41">
+      <c r="A4" s="64"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="40">
         <f>SUM(B4,D4,F4,H4,J4,L4,N4,P4)</f>
         <v>0</v>
       </c>
-      <c r="S4" s="42">
+      <c r="S4" s="41">
         <f>SUM(C4,E4,G4,I4,K4,M4,O4,Q4)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:19" s="18" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A5" s="43"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="41">
+      <c r="A5" s="65"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="40">
         <f t="shared" ref="R5:R35" si="0">SUM(B5,D5,F5,H5,J5,L5,N5,P5)</f>
         <v>0</v>
       </c>
-      <c r="S5" s="42">
+      <c r="S5" s="41">
         <f t="shared" ref="S5:S35" si="1">SUM(C5,E5,G5,I5,K5,M5,O5,Q5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:19" s="18" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A6" s="43"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="41">
+      <c r="A6" s="65"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S6" s="42">
+      <c r="S6" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="18" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A7" s="43"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="41">
+      <c r="A7" s="65"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S7" s="42">
+      <c r="S7" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="18" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A8" s="43"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="41">
+      <c r="A8" s="65"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S8" s="42">
+      <c r="S8" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:19" s="18" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A9" s="43"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="41">
+      <c r="A9" s="65"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S9" s="42">
+      <c r="S9" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:19" s="18" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A10" s="43"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="41">
+      <c r="A10" s="65"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S10" s="42">
+      <c r="S10" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:19" s="18" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A11" s="43"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="41">
+      <c r="A11" s="65"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S11" s="42">
+      <c r="S11" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:19" s="18" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A12" s="43"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="41">
+      <c r="A12" s="65"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S12" s="42">
+      <c r="S12" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="18" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A13" s="43"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="41">
+      <c r="A13" s="65"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S13" s="42">
+      <c r="S13" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="44"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="41">
+      <c r="A14" s="66"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S14" s="42">
+      <c r="S14" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="44"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="41">
+      <c r="A15" s="66"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S15" s="42">
+      <c r="S15" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="44"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="41">
+      <c r="A16" s="66"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S16" s="42">
+      <c r="S16" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="44"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="41">
+      <c r="A17" s="66"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S17" s="42">
+      <c r="S17" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="44"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="41">
+      <c r="A18" s="66"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S18" s="42">
+      <c r="S18" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="44"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="41">
+      <c r="A19" s="66"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S19" s="42">
+      <c r="S19" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="44"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="41">
+      <c r="A20" s="66"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S20" s="42">
+      <c r="S20" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:19">
-      <c r="A21" s="44"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="41">
+      <c r="A21" s="66"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S21" s="42">
+      <c r="S21" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="44"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="41">
+      <c r="A22" s="66"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S22" s="42">
+      <c r="S22" s="41">
         <f>SUM(C22,E22,G22,I22,K22,M22,O22,Q22)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" s="44"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="41">
+      <c r="A23" s="66"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S23" s="42">
+      <c r="S23" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:19">
-      <c r="A24" s="44"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="41">
+      <c r="A24" s="66"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S24" s="42">
+      <c r="S24" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:19">
-      <c r="A25" s="44"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="41">
+      <c r="A25" s="66"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="40">
         <f>SUM(B25,D25,F25,H25,J25,L25,N25,P25)</f>
         <v>0</v>
       </c>
-      <c r="S25" s="42">
+      <c r="S25" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:19">
-      <c r="A26" s="44"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="41">
+      <c r="A26" s="66"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S26" s="42">
+      <c r="S26" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:19">
-      <c r="A27" s="44"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="41">
+      <c r="A27" s="66"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S27" s="42">
+      <c r="S27" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:19">
-      <c r="A28" s="44"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="40"/>
-      <c r="M28" s="40"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="41">
+      <c r="A28" s="66"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S28" s="42">
+      <c r="S28" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:19">
-      <c r="A29" s="44"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="40"/>
-      <c r="N29" s="40"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="41">
+      <c r="A29" s="66"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S29" s="42">
+      <c r="S29" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:19">
-      <c r="A30" s="44"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="40"/>
-      <c r="N30" s="40"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="41">
+      <c r="A30" s="66"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="39"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="39"/>
+      <c r="R30" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S30" s="42">
+      <c r="S30" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:19">
-      <c r="A31" s="44"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="40"/>
-      <c r="N31" s="40"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="41">
+      <c r="A31" s="66"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="39"/>
+      <c r="R31" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S31" s="42">
+      <c r="S31" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:19">
-      <c r="A32" s="44"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="46"/>
-      <c r="N32" s="46"/>
-      <c r="O32" s="46"/>
-      <c r="P32" s="46"/>
-      <c r="Q32" s="46"/>
-      <c r="R32" s="41">
+      <c r="A32" s="66"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="43"/>
+      <c r="Q32" s="43"/>
+      <c r="R32" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S32" s="42">
+      <c r="S32" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:19">
-      <c r="A33" s="44"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="46"/>
-      <c r="N33" s="46"/>
-      <c r="O33" s="46"/>
-      <c r="P33" s="46"/>
-      <c r="Q33" s="46"/>
-      <c r="R33" s="41">
+      <c r="A33" s="66"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="43"/>
+      <c r="P33" s="43"/>
+      <c r="Q33" s="43"/>
+      <c r="R33" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S33" s="42">
+      <c r="S33" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:19">
-      <c r="A34" s="44"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="46"/>
-      <c r="K34" s="46"/>
-      <c r="L34" s="46"/>
-      <c r="M34" s="46"/>
-      <c r="N34" s="46"/>
-      <c r="O34" s="46"/>
-      <c r="P34" s="46"/>
-      <c r="Q34" s="46"/>
-      <c r="R34" s="41">
+      <c r="A34" s="66"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="43"/>
+      <c r="Q34" s="43"/>
+      <c r="R34" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S34" s="42">
+      <c r="S34" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:19">
-      <c r="A35" s="44"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="46"/>
-      <c r="J35" s="46"/>
-      <c r="K35" s="46"/>
-      <c r="L35" s="46"/>
-      <c r="M35" s="46"/>
-      <c r="N35" s="46"/>
-      <c r="O35" s="46"/>
-      <c r="P35" s="46"/>
-      <c r="Q35" s="46"/>
-      <c r="R35" s="41">
+      <c r="A35" s="66"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="43"/>
+      <c r="P35" s="43"/>
+      <c r="Q35" s="43"/>
+      <c r="R35" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S35" s="42">
+      <c r="S35" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:19" ht="17.25" thickBot="1">
-      <c r="A36" s="47" t="s">
+      <c r="A36" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B36" s="48">
+      <c r="B36" s="45">
         <f>SUM(B4:B35)</f>
         <v>0</v>
       </c>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48">
+      <c r="C36" s="45"/>
+      <c r="D36" s="45">
         <f>SUM(D4:D35)</f>
         <v>0</v>
       </c>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48">
+      <c r="E36" s="45"/>
+      <c r="F36" s="45">
         <f>SUM(F4:F35)</f>
         <v>0</v>
       </c>
-      <c r="G36" s="48"/>
-      <c r="H36" s="48">
+      <c r="G36" s="45"/>
+      <c r="H36" s="45">
         <f>SUM(H4:H35)</f>
         <v>0</v>
       </c>
-      <c r="I36" s="48"/>
-      <c r="J36" s="48">
+      <c r="I36" s="45"/>
+      <c r="J36" s="45">
         <f>SUM(J4:J35)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="48"/>
-      <c r="L36" s="48">
+      <c r="K36" s="45"/>
+      <c r="L36" s="45">
         <f>SUM(L4:L35)</f>
         <v>0</v>
       </c>
-      <c r="M36" s="48"/>
-      <c r="N36" s="48">
+      <c r="M36" s="45"/>
+      <c r="N36" s="45">
         <f>SUM(N4:N35)</f>
         <v>0</v>
       </c>
-      <c r="O36" s="48"/>
-      <c r="P36" s="48">
+      <c r="O36" s="45"/>
+      <c r="P36" s="45">
         <f>SUM(P4:P35)</f>
         <v>0</v>
       </c>
-      <c r="Q36" s="48"/>
-      <c r="R36" s="48">
+      <c r="Q36" s="45"/>
+      <c r="R36" s="45">
         <f>B36+D36+F36+H36+J36+P36+L36+N36</f>
         <v>0</v>
       </c>
-      <c r="S36" s="49"/>
+      <c r="S36" s="46"/>
     </row>
     <row r="37" spans="1:19" ht="17.25" thickBot="1">
       <c r="A37" s="15" t="s">
@@ -5097,43 +5098,43 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="22"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="51">
+      <c r="B3" s="47"/>
+      <c r="C3" s="48">
         <f t="shared" ref="C3:C16" si="0">B3*$C$36</f>
         <v>0</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="51">
+      <c r="D3" s="49"/>
+      <c r="E3" s="48">
         <f t="shared" ref="E3:E34" si="1">D3*$E$36</f>
         <v>0</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="51">
+      <c r="F3" s="50"/>
+      <c r="G3" s="48">
         <f t="shared" ref="G3:G15" si="2">F3*$G$36</f>
         <v>0</v>
       </c>
-      <c r="H3" s="53"/>
-      <c r="I3" s="51">
+      <c r="H3" s="50"/>
+      <c r="I3" s="48">
         <f t="shared" ref="I3:I34" si="3">H3*$I$36</f>
         <v>0</v>
       </c>
-      <c r="J3" s="53"/>
-      <c r="K3" s="51">
+      <c r="J3" s="50"/>
+      <c r="K3" s="48">
         <f t="shared" ref="K3:K34" si="4">J3*$K$36</f>
         <v>0</v>
       </c>
-      <c r="L3" s="54"/>
-      <c r="M3" s="55">
+      <c r="L3" s="51"/>
+      <c r="M3" s="52">
         <f>L3*$M$36</f>
         <v>0</v>
       </c>
-      <c r="N3" s="53"/>
-      <c r="O3" s="51">
+      <c r="N3" s="50"/>
+      <c r="O3" s="48">
         <f>N3*$O$36</f>
         <v>0</v>
       </c>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="57">
+      <c r="P3" s="53"/>
+      <c r="Q3" s="54">
         <f>P3*$Q$36</f>
         <v>0</v>
       </c>
@@ -5142,43 +5143,43 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="22"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="51">
+      <c r="B4" s="47"/>
+      <c r="C4" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="51">
+      <c r="D4" s="55"/>
+      <c r="E4" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F4" s="59"/>
-      <c r="G4" s="51">
+      <c r="F4" s="56"/>
+      <c r="G4" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H4" s="59"/>
-      <c r="I4" s="51">
+      <c r="H4" s="56"/>
+      <c r="I4" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J4" s="59"/>
-      <c r="K4" s="51">
+      <c r="J4" s="56"/>
+      <c r="K4" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L4" s="60"/>
-      <c r="M4" s="55">
+      <c r="L4" s="57"/>
+      <c r="M4" s="52">
         <f t="shared" ref="M4:M34" si="5">L4*$M$36</f>
         <v>0</v>
       </c>
-      <c r="N4" s="59"/>
-      <c r="O4" s="51">
+      <c r="N4" s="56"/>
+      <c r="O4" s="48">
         <f t="shared" ref="O4:O34" si="6">N4*$O$36</f>
         <v>0</v>
       </c>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="57">
+      <c r="P4" s="58"/>
+      <c r="Q4" s="54">
         <f t="shared" ref="Q4:Q34" si="7">P4*$Q$36</f>
         <v>0</v>
       </c>
@@ -5187,43 +5188,43 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="22"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51">
+      <c r="B5" s="47"/>
+      <c r="C5" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D5" s="58"/>
-      <c r="E5" s="51">
+      <c r="D5" s="55"/>
+      <c r="E5" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F5" s="62"/>
-      <c r="G5" s="51">
+      <c r="F5" s="59"/>
+      <c r="G5" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="51">
+      <c r="H5" s="59"/>
+      <c r="I5" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J5" s="62"/>
-      <c r="K5" s="51">
+      <c r="J5" s="59"/>
+      <c r="K5" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L5" s="63"/>
-      <c r="M5" s="55">
+      <c r="L5" s="60"/>
+      <c r="M5" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N5" s="62"/>
-      <c r="O5" s="51">
+      <c r="N5" s="59"/>
+      <c r="O5" s="48">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P5" s="64"/>
-      <c r="Q5" s="57">
+      <c r="P5" s="61"/>
+      <c r="Q5" s="54">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -5232,43 +5233,43 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="22"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="51">
+      <c r="B6" s="47"/>
+      <c r="C6" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D6" s="58"/>
-      <c r="E6" s="51">
+      <c r="D6" s="55"/>
+      <c r="E6" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F6" s="62"/>
-      <c r="G6" s="51">
+      <c r="F6" s="59"/>
+      <c r="G6" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H6" s="62"/>
-      <c r="I6" s="51">
+      <c r="H6" s="59"/>
+      <c r="I6" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J6" s="62"/>
-      <c r="K6" s="51">
+      <c r="J6" s="59"/>
+      <c r="K6" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L6" s="63"/>
-      <c r="M6" s="55">
+      <c r="L6" s="60"/>
+      <c r="M6" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N6" s="62"/>
-      <c r="O6" s="51">
+      <c r="N6" s="59"/>
+      <c r="O6" s="48">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="57">
+      <c r="P6" s="61"/>
+      <c r="Q6" s="54">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -5277,43 +5278,43 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="22"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="51">
+      <c r="B7" s="62"/>
+      <c r="C7" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="51">
+      <c r="D7" s="55"/>
+      <c r="E7" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F7" s="62"/>
-      <c r="G7" s="51">
+      <c r="F7" s="59"/>
+      <c r="G7" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="51">
+      <c r="H7" s="59"/>
+      <c r="I7" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J7" s="62"/>
-      <c r="K7" s="51">
+      <c r="J7" s="59"/>
+      <c r="K7" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L7" s="63"/>
-      <c r="M7" s="55">
+      <c r="L7" s="60"/>
+      <c r="M7" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N7" s="62"/>
-      <c r="O7" s="51">
+      <c r="N7" s="59"/>
+      <c r="O7" s="48">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P7" s="64"/>
-      <c r="Q7" s="57">
+      <c r="P7" s="61"/>
+      <c r="Q7" s="54">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -5322,43 +5323,43 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="22"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="51">
+      <c r="B8" s="47"/>
+      <c r="C8" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D8" s="58"/>
-      <c r="E8" s="51">
+      <c r="D8" s="55"/>
+      <c r="E8" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F8" s="62"/>
-      <c r="G8" s="51">
+      <c r="F8" s="59"/>
+      <c r="G8" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H8" s="62"/>
-      <c r="I8" s="51">
+      <c r="H8" s="59"/>
+      <c r="I8" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J8" s="62"/>
-      <c r="K8" s="51">
+      <c r="J8" s="59"/>
+      <c r="K8" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L8" s="63"/>
-      <c r="M8" s="55">
+      <c r="L8" s="60"/>
+      <c r="M8" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N8" s="62"/>
-      <c r="O8" s="51">
+      <c r="N8" s="59"/>
+      <c r="O8" s="48">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P8" s="64"/>
-      <c r="Q8" s="57">
+      <c r="P8" s="61"/>
+      <c r="Q8" s="54">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -5367,43 +5368,43 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="22"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="51">
+      <c r="B9" s="47"/>
+      <c r="C9" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D9" s="58"/>
-      <c r="E9" s="51">
+      <c r="D9" s="55"/>
+      <c r="E9" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F9" s="62"/>
-      <c r="G9" s="51">
+      <c r="F9" s="59"/>
+      <c r="G9" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H9" s="62"/>
-      <c r="I9" s="51">
+      <c r="H9" s="59"/>
+      <c r="I9" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J9" s="62"/>
-      <c r="K9" s="51">
+      <c r="J9" s="59"/>
+      <c r="K9" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L9" s="63"/>
-      <c r="M9" s="55">
+      <c r="L9" s="60"/>
+      <c r="M9" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N9" s="62"/>
-      <c r="O9" s="51">
+      <c r="N9" s="59"/>
+      <c r="O9" s="48">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P9" s="64"/>
-      <c r="Q9" s="57">
+      <c r="P9" s="61"/>
+      <c r="Q9" s="54">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -5412,43 +5413,43 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="22"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="51">
+      <c r="B10" s="47"/>
+      <c r="C10" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D10" s="58"/>
-      <c r="E10" s="51">
+      <c r="D10" s="55"/>
+      <c r="E10" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F10" s="62"/>
-      <c r="G10" s="51">
+      <c r="F10" s="59"/>
+      <c r="G10" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H10" s="62"/>
-      <c r="I10" s="51">
+      <c r="H10" s="59"/>
+      <c r="I10" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J10" s="62"/>
-      <c r="K10" s="51">
+      <c r="J10" s="59"/>
+      <c r="K10" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L10" s="63"/>
-      <c r="M10" s="55">
+      <c r="L10" s="60"/>
+      <c r="M10" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N10" s="62"/>
-      <c r="O10" s="51">
+      <c r="N10" s="59"/>
+      <c r="O10" s="48">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P10" s="64"/>
-      <c r="Q10" s="57">
+      <c r="P10" s="61"/>
+      <c r="Q10" s="54">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -5457,43 +5458,43 @@
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="22"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="51">
+      <c r="B11" s="47"/>
+      <c r="C11" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D11" s="58"/>
-      <c r="E11" s="51">
+      <c r="D11" s="55"/>
+      <c r="E11" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F11" s="62"/>
-      <c r="G11" s="51">
+      <c r="F11" s="59"/>
+      <c r="G11" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H11" s="62"/>
-      <c r="I11" s="51">
+      <c r="H11" s="59"/>
+      <c r="I11" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J11" s="62"/>
-      <c r="K11" s="51">
+      <c r="J11" s="59"/>
+      <c r="K11" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L11" s="63"/>
-      <c r="M11" s="55">
+      <c r="L11" s="60"/>
+      <c r="M11" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N11" s="62"/>
-      <c r="O11" s="51">
+      <c r="N11" s="59"/>
+      <c r="O11" s="48">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P11" s="64"/>
-      <c r="Q11" s="57">
+      <c r="P11" s="61"/>
+      <c r="Q11" s="54">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -5502,43 +5503,43 @@
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="22"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="51">
+      <c r="B12" s="47"/>
+      <c r="C12" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D12" s="58"/>
-      <c r="E12" s="51">
+      <c r="D12" s="55"/>
+      <c r="E12" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F12" s="62"/>
-      <c r="G12" s="51">
+      <c r="F12" s="59"/>
+      <c r="G12" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H12" s="62"/>
-      <c r="I12" s="51">
+      <c r="H12" s="59"/>
+      <c r="I12" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J12" s="62"/>
-      <c r="K12" s="51">
+      <c r="J12" s="59"/>
+      <c r="K12" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L12" s="63"/>
-      <c r="M12" s="55">
+      <c r="L12" s="60"/>
+      <c r="M12" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N12" s="62"/>
-      <c r="O12" s="51">
+      <c r="N12" s="59"/>
+      <c r="O12" s="48">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P12" s="64"/>
-      <c r="Q12" s="57">
+      <c r="P12" s="61"/>
+      <c r="Q12" s="54">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -5547,43 +5548,43 @@
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="22"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="51">
+      <c r="B13" s="47"/>
+      <c r="C13" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="51">
+      <c r="D13" s="55"/>
+      <c r="E13" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F13" s="62"/>
-      <c r="G13" s="51">
+      <c r="F13" s="59"/>
+      <c r="G13" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H13" s="62"/>
-      <c r="I13" s="51">
+      <c r="H13" s="59"/>
+      <c r="I13" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J13" s="62"/>
-      <c r="K13" s="51">
+      <c r="J13" s="59"/>
+      <c r="K13" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L13" s="63"/>
-      <c r="M13" s="55">
+      <c r="L13" s="60"/>
+      <c r="M13" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N13" s="62"/>
-      <c r="O13" s="51">
+      <c r="N13" s="59"/>
+      <c r="O13" s="48">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P13" s="64"/>
-      <c r="Q13" s="57">
+      <c r="P13" s="61"/>
+      <c r="Q13" s="54">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -5592,43 +5593,43 @@
     </row>
     <row r="14" spans="1:19" ht="16.5" customHeight="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="51">
+      <c r="B14" s="63"/>
+      <c r="C14" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D14" s="52"/>
-      <c r="E14" s="51">
+      <c r="D14" s="49"/>
+      <c r="E14" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F14" s="59"/>
-      <c r="G14" s="51">
+      <c r="F14" s="56"/>
+      <c r="G14" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H14" s="59"/>
-      <c r="I14" s="51">
+      <c r="H14" s="56"/>
+      <c r="I14" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J14" s="59"/>
-      <c r="K14" s="51">
+      <c r="J14" s="56"/>
+      <c r="K14" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L14" s="60"/>
-      <c r="M14" s="55">
+      <c r="L14" s="57"/>
+      <c r="M14" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N14" s="59"/>
-      <c r="O14" s="51">
+      <c r="N14" s="56"/>
+      <c r="O14" s="48">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="57">
+      <c r="P14" s="58"/>
+      <c r="Q14" s="54">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -5637,43 +5638,43 @@
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="22"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="51">
+      <c r="B15" s="63"/>
+      <c r="C15" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D15" s="52"/>
-      <c r="E15" s="51">
+      <c r="D15" s="49"/>
+      <c r="E15" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F15" s="59"/>
-      <c r="G15" s="51">
+      <c r="F15" s="56"/>
+      <c r="G15" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H15" s="62"/>
-      <c r="I15" s="51">
+      <c r="H15" s="59"/>
+      <c r="I15" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J15" s="59"/>
-      <c r="K15" s="51">
+      <c r="J15" s="56"/>
+      <c r="K15" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L15" s="60"/>
-      <c r="M15" s="55">
+      <c r="L15" s="57"/>
+      <c r="M15" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N15" s="59"/>
-      <c r="O15" s="51">
+      <c r="N15" s="56"/>
+      <c r="O15" s="48">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P15" s="61"/>
-      <c r="Q15" s="57">
+      <c r="P15" s="58"/>
+      <c r="Q15" s="54">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -5682,43 +5683,43 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="22"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="51">
+      <c r="B16" s="63"/>
+      <c r="C16" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D16" s="52"/>
-      <c r="E16" s="51">
+      <c r="D16" s="49"/>
+      <c r="E16" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F16" s="59"/>
-      <c r="G16" s="51">
+      <c r="F16" s="56"/>
+      <c r="G16" s="48">
         <f>F16*$G$36</f>
         <v>0</v>
       </c>
-      <c r="H16" s="62"/>
-      <c r="I16" s="51">
+      <c r="H16" s="59"/>
+      <c r="I16" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J16" s="59"/>
-      <c r="K16" s="51">
+      <c r="J16" s="56"/>
+      <c r="K16" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L16" s="60"/>
-      <c r="M16" s="55">
+      <c r="L16" s="57"/>
+      <c r="M16" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N16" s="59"/>
-      <c r="O16" s="51">
+      <c r="N16" s="56"/>
+      <c r="O16" s="48">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P16" s="61"/>
-      <c r="Q16" s="57">
+      <c r="P16" s="58"/>
+      <c r="Q16" s="54">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -5727,43 +5728,43 @@
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="22"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="51">
+      <c r="B17" s="63"/>
+      <c r="C17" s="48">
         <f t="shared" ref="C17:C34" si="8">B17*$C$36</f>
         <v>0</v>
       </c>
-      <c r="D17" s="52"/>
-      <c r="E17" s="51">
+      <c r="D17" s="49"/>
+      <c r="E17" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F17" s="59"/>
-      <c r="G17" s="51">
+      <c r="F17" s="56"/>
+      <c r="G17" s="48">
         <f t="shared" ref="G17:G34" si="9">F17*$G$36</f>
         <v>0</v>
       </c>
-      <c r="H17" s="62"/>
-      <c r="I17" s="51">
+      <c r="H17" s="59"/>
+      <c r="I17" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J17" s="59"/>
-      <c r="K17" s="51">
+      <c r="J17" s="56"/>
+      <c r="K17" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L17" s="60"/>
-      <c r="M17" s="55">
+      <c r="L17" s="57"/>
+      <c r="M17" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N17" s="59"/>
-      <c r="O17" s="51">
+      <c r="N17" s="56"/>
+      <c r="O17" s="48">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P17" s="61"/>
-      <c r="Q17" s="57">
+      <c r="P17" s="58"/>
+      <c r="Q17" s="54">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -5772,43 +5773,43 @@
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="22"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="51">
+      <c r="B18" s="63"/>
+      <c r="C18" s="48">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D18" s="52"/>
-      <c r="E18" s="51">
+      <c r="D18" s="49"/>
+      <c r="E18" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F18" s="59"/>
-      <c r="G18" s="51">
+      <c r="F18" s="56"/>
+      <c r="G18" s="48">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H18" s="62"/>
-      <c r="I18" s="51">
+      <c r="H18" s="59"/>
+      <c r="I18" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J18" s="59"/>
-      <c r="K18" s="51">
+      <c r="J18" s="56"/>
+      <c r="K18" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L18" s="60"/>
-      <c r="M18" s="55">
+      <c r="L18" s="57"/>
+      <c r="M18" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N18" s="59"/>
-      <c r="O18" s="51">
+      <c r="N18" s="56"/>
+      <c r="O18" s="48">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P18" s="61"/>
-      <c r="Q18" s="57">
+      <c r="P18" s="58"/>
+      <c r="Q18" s="54">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -5817,43 +5818,43 @@
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="22"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="51">
+      <c r="B19" s="63"/>
+      <c r="C19" s="48">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D19" s="52"/>
-      <c r="E19" s="51">
+      <c r="D19" s="49"/>
+      <c r="E19" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F19" s="59"/>
-      <c r="G19" s="51">
+      <c r="F19" s="56"/>
+      <c r="G19" s="48">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H19" s="62"/>
-      <c r="I19" s="51">
+      <c r="H19" s="59"/>
+      <c r="I19" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J19" s="59"/>
-      <c r="K19" s="51">
+      <c r="J19" s="56"/>
+      <c r="K19" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L19" s="60"/>
-      <c r="M19" s="55">
+      <c r="L19" s="57"/>
+      <c r="M19" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N19" s="59"/>
-      <c r="O19" s="51">
+      <c r="N19" s="56"/>
+      <c r="O19" s="48">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P19" s="61"/>
-      <c r="Q19" s="57">
+      <c r="P19" s="58"/>
+      <c r="Q19" s="54">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -5862,43 +5863,43 @@
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="22"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="51">
+      <c r="B20" s="63"/>
+      <c r="C20" s="48">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D20" s="52"/>
-      <c r="E20" s="51">
+      <c r="D20" s="49"/>
+      <c r="E20" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F20" s="59"/>
-      <c r="G20" s="51">
+      <c r="F20" s="56"/>
+      <c r="G20" s="48">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H20" s="62"/>
-      <c r="I20" s="51">
+      <c r="H20" s="59"/>
+      <c r="I20" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J20" s="59"/>
-      <c r="K20" s="51">
+      <c r="J20" s="56"/>
+      <c r="K20" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L20" s="60"/>
-      <c r="M20" s="55">
+      <c r="L20" s="57"/>
+      <c r="M20" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N20" s="59"/>
-      <c r="O20" s="51">
+      <c r="N20" s="56"/>
+      <c r="O20" s="48">
         <f>N20*$O$36</f>
         <v>0</v>
       </c>
-      <c r="P20" s="61"/>
-      <c r="Q20" s="57">
+      <c r="P20" s="58"/>
+      <c r="Q20" s="54">
         <f>P20*$Q$36</f>
         <v>0</v>
       </c>
@@ -5907,43 +5908,43 @@
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="22"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="51">
+      <c r="B21" s="63"/>
+      <c r="C21" s="48">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D21" s="52"/>
-      <c r="E21" s="51">
+      <c r="D21" s="49"/>
+      <c r="E21" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F21" s="59"/>
-      <c r="G21" s="51">
+      <c r="F21" s="56"/>
+      <c r="G21" s="48">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H21" s="62"/>
-      <c r="I21" s="51">
+      <c r="H21" s="59"/>
+      <c r="I21" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J21" s="59"/>
-      <c r="K21" s="51">
+      <c r="J21" s="56"/>
+      <c r="K21" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L21" s="60"/>
-      <c r="M21" s="55">
+      <c r="L21" s="57"/>
+      <c r="M21" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N21" s="59"/>
-      <c r="O21" s="51">
+      <c r="N21" s="56"/>
+      <c r="O21" s="48">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P21" s="61"/>
-      <c r="Q21" s="57">
+      <c r="P21" s="58"/>
+      <c r="Q21" s="54">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -5952,43 +5953,43 @@
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="22"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="51">
+      <c r="B22" s="63"/>
+      <c r="C22" s="48">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D22" s="52"/>
-      <c r="E22" s="51">
+      <c r="D22" s="49"/>
+      <c r="E22" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F22" s="59"/>
-      <c r="G22" s="51">
+      <c r="F22" s="56"/>
+      <c r="G22" s="48">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H22" s="62"/>
-      <c r="I22" s="51">
+      <c r="H22" s="59"/>
+      <c r="I22" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J22" s="59"/>
-      <c r="K22" s="51">
+      <c r="J22" s="56"/>
+      <c r="K22" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L22" s="60"/>
-      <c r="M22" s="55">
+      <c r="L22" s="57"/>
+      <c r="M22" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N22" s="59"/>
-      <c r="O22" s="51">
+      <c r="N22" s="56"/>
+      <c r="O22" s="48">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P22" s="61"/>
-      <c r="Q22" s="57">
+      <c r="P22" s="58"/>
+      <c r="Q22" s="54">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -5997,43 +5998,43 @@
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="22"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="51">
+      <c r="B23" s="63"/>
+      <c r="C23" s="48">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D23" s="52"/>
-      <c r="E23" s="51">
+      <c r="D23" s="49"/>
+      <c r="E23" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F23" s="59"/>
-      <c r="G23" s="51">
+      <c r="F23" s="56"/>
+      <c r="G23" s="48">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H23" s="62"/>
-      <c r="I23" s="51">
+      <c r="H23" s="59"/>
+      <c r="I23" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J23" s="59"/>
-      <c r="K23" s="51">
+      <c r="J23" s="56"/>
+      <c r="K23" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L23" s="60"/>
-      <c r="M23" s="55">
+      <c r="L23" s="57"/>
+      <c r="M23" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N23" s="59"/>
-      <c r="O23" s="51">
+      <c r="N23" s="56"/>
+      <c r="O23" s="48">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P23" s="61"/>
-      <c r="Q23" s="57">
+      <c r="P23" s="58"/>
+      <c r="Q23" s="54">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -6042,43 +6043,43 @@
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="22"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="51">
+      <c r="B24" s="63"/>
+      <c r="C24" s="48">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D24" s="52"/>
-      <c r="E24" s="51">
+      <c r="D24" s="49"/>
+      <c r="E24" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F24" s="59"/>
-      <c r="G24" s="51">
+      <c r="F24" s="56"/>
+      <c r="G24" s="48">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H24" s="62"/>
-      <c r="I24" s="51">
+      <c r="H24" s="59"/>
+      <c r="I24" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J24" s="59"/>
-      <c r="K24" s="51">
+      <c r="J24" s="56"/>
+      <c r="K24" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L24" s="60"/>
-      <c r="M24" s="55">
+      <c r="L24" s="57"/>
+      <c r="M24" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N24" s="59"/>
-      <c r="O24" s="51">
+      <c r="N24" s="56"/>
+      <c r="O24" s="48">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P24" s="61"/>
-      <c r="Q24" s="57">
+      <c r="P24" s="58"/>
+      <c r="Q24" s="54">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -6087,43 +6088,43 @@
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="22"/>
-      <c r="B25" s="66"/>
-      <c r="C25" s="51">
+      <c r="B25" s="63"/>
+      <c r="C25" s="48">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D25" s="52"/>
-      <c r="E25" s="51">
+      <c r="D25" s="49"/>
+      <c r="E25" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F25" s="59"/>
-      <c r="G25" s="51">
+      <c r="F25" s="56"/>
+      <c r="G25" s="48">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H25" s="62"/>
-      <c r="I25" s="51">
+      <c r="H25" s="59"/>
+      <c r="I25" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J25" s="59"/>
-      <c r="K25" s="51">
+      <c r="J25" s="56"/>
+      <c r="K25" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L25" s="60"/>
-      <c r="M25" s="55">
+      <c r="L25" s="57"/>
+      <c r="M25" s="52">
         <f>L25*$M$36</f>
         <v>0</v>
       </c>
-      <c r="N25" s="59"/>
-      <c r="O25" s="51">
+      <c r="N25" s="56"/>
+      <c r="O25" s="48">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P25" s="61"/>
-      <c r="Q25" s="57">
+      <c r="P25" s="58"/>
+      <c r="Q25" s="54">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -6132,43 +6133,43 @@
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="22"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="51">
+      <c r="B26" s="63"/>
+      <c r="C26" s="48">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D26" s="52"/>
-      <c r="E26" s="51">
+      <c r="D26" s="49"/>
+      <c r="E26" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F26" s="59"/>
-      <c r="G26" s="51">
+      <c r="F26" s="56"/>
+      <c r="G26" s="48">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H26" s="62"/>
-      <c r="I26" s="51">
+      <c r="H26" s="59"/>
+      <c r="I26" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J26" s="59"/>
-      <c r="K26" s="51">
+      <c r="J26" s="56"/>
+      <c r="K26" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L26" s="60"/>
-      <c r="M26" s="55">
+      <c r="L26" s="57"/>
+      <c r="M26" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N26" s="59"/>
-      <c r="O26" s="51">
+      <c r="N26" s="56"/>
+      <c r="O26" s="48">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P26" s="61"/>
-      <c r="Q26" s="57">
+      <c r="P26" s="58"/>
+      <c r="Q26" s="54">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -6177,43 +6178,43 @@
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="23"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="51">
+      <c r="B27" s="63"/>
+      <c r="C27" s="48">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D27" s="52"/>
-      <c r="E27" s="51">
+      <c r="D27" s="49"/>
+      <c r="E27" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F27" s="59"/>
-      <c r="G27" s="51">
+      <c r="F27" s="56"/>
+      <c r="G27" s="48">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H27" s="62"/>
-      <c r="I27" s="51">
+      <c r="H27" s="59"/>
+      <c r="I27" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J27" s="59"/>
-      <c r="K27" s="51">
+      <c r="J27" s="56"/>
+      <c r="K27" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L27" s="60"/>
-      <c r="M27" s="55">
+      <c r="L27" s="57"/>
+      <c r="M27" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N27" s="59"/>
-      <c r="O27" s="51">
+      <c r="N27" s="56"/>
+      <c r="O27" s="48">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P27" s="61"/>
-      <c r="Q27" s="57">
+      <c r="P27" s="58"/>
+      <c r="Q27" s="54">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -6222,43 +6223,43 @@
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="23"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="51">
+      <c r="B28" s="63"/>
+      <c r="C28" s="48">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D28" s="52"/>
-      <c r="E28" s="51">
+      <c r="D28" s="49"/>
+      <c r="E28" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F28" s="59"/>
-      <c r="G28" s="51">
+      <c r="F28" s="56"/>
+      <c r="G28" s="48">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H28" s="62"/>
-      <c r="I28" s="51">
+      <c r="H28" s="59"/>
+      <c r="I28" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J28" s="59"/>
-      <c r="K28" s="51">
+      <c r="J28" s="56"/>
+      <c r="K28" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L28" s="60"/>
-      <c r="M28" s="55">
+      <c r="L28" s="57"/>
+      <c r="M28" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N28" s="59"/>
-      <c r="O28" s="51">
+      <c r="N28" s="56"/>
+      <c r="O28" s="48">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P28" s="61"/>
-      <c r="Q28" s="57">
+      <c r="P28" s="58"/>
+      <c r="Q28" s="54">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -6267,43 +6268,43 @@
     </row>
     <row r="29" spans="1:19">
       <c r="A29" s="23"/>
-      <c r="B29" s="66"/>
-      <c r="C29" s="51">
+      <c r="B29" s="63"/>
+      <c r="C29" s="48">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D29" s="52"/>
-      <c r="E29" s="51">
+      <c r="D29" s="49"/>
+      <c r="E29" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F29" s="59"/>
-      <c r="G29" s="51">
+      <c r="F29" s="56"/>
+      <c r="G29" s="48">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H29" s="59"/>
-      <c r="I29" s="51">
+      <c r="H29" s="56"/>
+      <c r="I29" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J29" s="59"/>
-      <c r="K29" s="51">
+      <c r="J29" s="56"/>
+      <c r="K29" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L29" s="60"/>
-      <c r="M29" s="55">
+      <c r="L29" s="57"/>
+      <c r="M29" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N29" s="59"/>
-      <c r="O29" s="51">
+      <c r="N29" s="56"/>
+      <c r="O29" s="48">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P29" s="61"/>
-      <c r="Q29" s="57">
+      <c r="P29" s="58"/>
+      <c r="Q29" s="54">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -6312,43 +6313,43 @@
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="23"/>
-      <c r="B30" s="66"/>
-      <c r="C30" s="51">
+      <c r="B30" s="63"/>
+      <c r="C30" s="48">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D30" s="52"/>
-      <c r="E30" s="51">
+      <c r="D30" s="49"/>
+      <c r="E30" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F30" s="59"/>
-      <c r="G30" s="51">
+      <c r="F30" s="56"/>
+      <c r="G30" s="48">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H30" s="62"/>
-      <c r="I30" s="51">
+      <c r="H30" s="59"/>
+      <c r="I30" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J30" s="59"/>
-      <c r="K30" s="51">
+      <c r="J30" s="56"/>
+      <c r="K30" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L30" s="60"/>
-      <c r="M30" s="55">
+      <c r="L30" s="57"/>
+      <c r="M30" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N30" s="59"/>
-      <c r="O30" s="51">
+      <c r="N30" s="56"/>
+      <c r="O30" s="48">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P30" s="61"/>
-      <c r="Q30" s="57">
+      <c r="P30" s="58"/>
+      <c r="Q30" s="54">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -6357,43 +6358,43 @@
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="23"/>
-      <c r="B31" s="66"/>
-      <c r="C31" s="51">
+      <c r="B31" s="63"/>
+      <c r="C31" s="48">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D31" s="52"/>
-      <c r="E31" s="51">
+      <c r="D31" s="49"/>
+      <c r="E31" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F31" s="59"/>
-      <c r="G31" s="51">
+      <c r="F31" s="56"/>
+      <c r="G31" s="48">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H31" s="62"/>
-      <c r="I31" s="51">
+      <c r="H31" s="59"/>
+      <c r="I31" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J31" s="59"/>
-      <c r="K31" s="51">
+      <c r="J31" s="56"/>
+      <c r="K31" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L31" s="60"/>
-      <c r="M31" s="55">
+      <c r="L31" s="57"/>
+      <c r="M31" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N31" s="59"/>
-      <c r="O31" s="51">
+      <c r="N31" s="56"/>
+      <c r="O31" s="48">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P31" s="61"/>
-      <c r="Q31" s="57">
+      <c r="P31" s="58"/>
+      <c r="Q31" s="54">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -6402,43 +6403,43 @@
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="23"/>
-      <c r="B32" s="66"/>
-      <c r="C32" s="51">
+      <c r="B32" s="63"/>
+      <c r="C32" s="48">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D32" s="52"/>
-      <c r="E32" s="51">
+      <c r="D32" s="49"/>
+      <c r="E32" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F32" s="59"/>
-      <c r="G32" s="51">
+      <c r="F32" s="56"/>
+      <c r="G32" s="48">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H32" s="62"/>
-      <c r="I32" s="51">
+      <c r="H32" s="59"/>
+      <c r="I32" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J32" s="59"/>
-      <c r="K32" s="51">
+      <c r="J32" s="56"/>
+      <c r="K32" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L32" s="60"/>
-      <c r="M32" s="55">
+      <c r="L32" s="57"/>
+      <c r="M32" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N32" s="59"/>
-      <c r="O32" s="51">
+      <c r="N32" s="56"/>
+      <c r="O32" s="48">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P32" s="61"/>
-      <c r="Q32" s="57">
+      <c r="P32" s="58"/>
+      <c r="Q32" s="54">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -6447,43 +6448,43 @@
     </row>
     <row r="33" spans="1:19">
       <c r="A33" s="23"/>
-      <c r="B33" s="66"/>
-      <c r="C33" s="51">
+      <c r="B33" s="63"/>
+      <c r="C33" s="48">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D33" s="52"/>
-      <c r="E33" s="51">
+      <c r="D33" s="49"/>
+      <c r="E33" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F33" s="59"/>
-      <c r="G33" s="51">
+      <c r="F33" s="56"/>
+      <c r="G33" s="48">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H33" s="59"/>
-      <c r="I33" s="51">
+      <c r="H33" s="56"/>
+      <c r="I33" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J33" s="59"/>
-      <c r="K33" s="51">
+      <c r="J33" s="56"/>
+      <c r="K33" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L33" s="60"/>
-      <c r="M33" s="55">
+      <c r="L33" s="57"/>
+      <c r="M33" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N33" s="59"/>
-      <c r="O33" s="51">
+      <c r="N33" s="56"/>
+      <c r="O33" s="48">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P33" s="61"/>
-      <c r="Q33" s="57">
+      <c r="P33" s="58"/>
+      <c r="Q33" s="54">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -6492,43 +6493,43 @@
     </row>
     <row r="34" spans="1:19">
       <c r="A34" s="22"/>
-      <c r="B34" s="66"/>
-      <c r="C34" s="51">
+      <c r="B34" s="63"/>
+      <c r="C34" s="48">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D34" s="52"/>
-      <c r="E34" s="51">
+      <c r="D34" s="49"/>
+      <c r="E34" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F34" s="59"/>
-      <c r="G34" s="51">
+      <c r="F34" s="56"/>
+      <c r="G34" s="48">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H34" s="59"/>
-      <c r="I34" s="51">
+      <c r="H34" s="56"/>
+      <c r="I34" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J34" s="59"/>
-      <c r="K34" s="51">
+      <c r="J34" s="56"/>
+      <c r="K34" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L34" s="60"/>
-      <c r="M34" s="55">
+      <c r="L34" s="57"/>
+      <c r="M34" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N34" s="59"/>
-      <c r="O34" s="51">
+      <c r="N34" s="56"/>
+      <c r="O34" s="48">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P34" s="61"/>
-      <c r="Q34" s="57">
+      <c r="P34" s="58"/>
+      <c r="Q34" s="54">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>

--- a/PhoenixCI/Excel_Template/30320.xlsx
+++ b/PhoenixCI/Excel_Template/30320.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Source\Repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\開發\PhoenixCI\20190802\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAD33175-AC74-4C64-B91B-2B72FA4FF7DE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="599"/>
+    <workbookView xWindow="-90" yWindow="-360" windowWidth="15255" windowHeight="8595" tabRatio="599"/>
   </bookViews>
   <sheets>
     <sheet name="30320" sheetId="3" r:id="rId1"/>
@@ -18,20 +17,12 @@
     <sheet name="30320a" sheetId="1" r:id="rId3"/>
     <sheet name="30320b" sheetId="10" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -374,6 +365,14 @@
     <t>合計</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>G2F富櫃200期貨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTF櫃買指數期貨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -391,7 +390,7 @@
     <numFmt numFmtId="188" formatCode="0.00_ ;[Red]\-0.00\ "/>
     <numFmt numFmtId="189" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="40">
     <font>
       <sz val="12"/>
       <name val="新細明體"/>
@@ -618,6 +617,32 @@
     <font>
       <sz val="13"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFFF0000"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -887,7 +912,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -902,11 +927,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -985,8 +1010,8 @@
     <xf numFmtId="178" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="183" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1017,6 +1042,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="189" fontId="32" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="189" fontId="32" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1029,6 +1058,13 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="189" fontId="32" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="189" fontId="32" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="189" fontId="32" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1056,15 +1092,15 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="32" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="32" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="35" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="35" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="187" fontId="35" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="187" fontId="35" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1072,7 +1108,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="188" fontId="35" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="188" fontId="35" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1106,19 +1142,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="32" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="32" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="35" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="187" fontId="35" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="187" fontId="35" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1161,6 +1199,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1168,11 +1221,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1181,10 +1234,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1394,7 +1443,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F070-404E-91EB-C93A489F7F06}"/>
+              <c16:uniqueId val="{00000000-6120-4AED-9B15-F72AB01E3BC2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1552,7 +1601,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F070-404E-91EB-C93A489F7F06}"/>
+              <c16:uniqueId val="{00000001-6120-4AED-9B15-F72AB01E3BC2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1710,7 +1759,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F070-404E-91EB-C93A489F7F06}"/>
+              <c16:uniqueId val="{00000002-6120-4AED-9B15-F72AB01E3BC2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1866,7 +1915,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-F070-404E-91EB-C93A489F7F06}"/>
+              <c16:uniqueId val="{00000003-6120-4AED-9B15-F72AB01E3BC2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2022,7 +2071,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-F070-404E-91EB-C93A489F7F06}"/>
+              <c16:uniqueId val="{00000004-6120-4AED-9B15-F72AB01E3BC2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2063,6 +2112,15 @@
               </a:ln>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Data_30322ab!$A$3:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>@</c:formatCode>
+                <c:ptCount val="32"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Data_30322ab!$M$3:$M$34</c:f>
@@ -2171,7 +2229,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-F070-404E-91EB-C93A489F7F06}"/>
+              <c16:uniqueId val="{00000005-6120-4AED-9B15-F72AB01E3BC2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2189,6 +2247,15 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Data_30322ab!$A$3:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>@</c:formatCode>
+                <c:ptCount val="32"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Data_30322ab!$O$3:$O$34</c:f>
@@ -2297,7 +2364,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-F070-404E-91EB-C93A489F7F06}"/>
+              <c16:uniqueId val="{00000006-6120-4AED-9B15-F72AB01E3BC2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2315,6 +2382,15 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Data_30322ab!$A$3:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>@</c:formatCode>
+                <c:ptCount val="32"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Data_30322ab!$Q$3:$Q$34</c:f>
@@ -2423,7 +2499,142 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-F070-404E-91EB-C93A489F7F06}"/>
+              <c16:uniqueId val="{00000007-6120-4AED-9B15-F72AB01E3BC2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data_30322ab!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>G2F富櫃200期貨</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Data_30322ab!$A$3:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>@</c:formatCode>
+                <c:ptCount val="32"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data_30322ab!$S$3:$S$34</c:f>
+              <c:numCache>
+                <c:formatCode>0_ </c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-6120-4AED-9B15-F72AB01E3BC2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2437,11 +2648,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="300897984"/>
+        <c:axId val="387910528"/>
         <c:axId val="1"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="300897984"/>
+        <c:axId val="387910528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2531,7 +2742,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300897984"/>
+        <c:crossAx val="387910528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="100"/>
@@ -2557,10 +2768,10 @@
           <c:yMode val="edge"/>
           <c:wMode val="edge"/>
           <c:hMode val="edge"/>
-          <c:x val="0.29222797927461142"/>
-          <c:y val="7.6530612244897961E-2"/>
-          <c:w val="0.42901554404145081"/>
-          <c:h val="0.35034013605442182"/>
+          <c:x val="0.29222798445566461"/>
+          <c:y val="7.6530614063700361E-2"/>
+          <c:w val="0.42888327423161432"/>
+          <c:h val="0.38432694689973673"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2710,7 +2921,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-D15D-481C-89CB-C9AEA38F1290}"/>
+                <c16:uniqueId val="{00000000-268D-43AB-81B0-F7852BAB5AFD}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2730,7 +2941,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-D15D-481C-89CB-C9AEA38F1290}"/>
+                <c16:uniqueId val="{00000001-268D-43AB-81B0-F7852BAB5AFD}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2750,7 +2961,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-D15D-481C-89CB-C9AEA38F1290}"/>
+                <c16:uniqueId val="{00000002-268D-43AB-81B0-F7852BAB5AFD}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2770,7 +2981,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-D15D-481C-89CB-C9AEA38F1290}"/>
+                <c16:uniqueId val="{00000003-268D-43AB-81B0-F7852BAB5AFD}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2790,7 +3001,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-D15D-481C-89CB-C9AEA38F1290}"/>
+                <c16:uniqueId val="{00000004-268D-43AB-81B0-F7852BAB5AFD}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2810,7 +3021,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-D15D-481C-89CB-C9AEA38F1290}"/>
+                <c16:uniqueId val="{00000005-268D-43AB-81B0-F7852BAB5AFD}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2819,7 +3030,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-D15D-481C-89CB-C9AEA38F1290}"/>
+                <c16:uniqueId val="{00000006-268D-43AB-81B0-F7852BAB5AFD}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2828,7 +3039,16 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-D15D-481C-89CB-C9AEA38F1290}"/>
+                <c16:uniqueId val="{00000007-268D-43AB-81B0-F7852BAB5AFD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-268D-43AB-81B0-F7852BAB5AFD}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2875,7 +3095,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-D15D-481C-89CB-C9AEA38F1290}"/>
+                  <c16:uniqueId val="{00000000-268D-43AB-81B0-F7852BAB5AFD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2921,7 +3141,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-D15D-481C-89CB-C9AEA38F1290}"/>
+                  <c16:uniqueId val="{00000001-268D-43AB-81B0-F7852BAB5AFD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2967,7 +3187,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-D15D-481C-89CB-C9AEA38F1290}"/>
+                  <c16:uniqueId val="{00000002-268D-43AB-81B0-F7852BAB5AFD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3013,7 +3233,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-D15D-481C-89CB-C9AEA38F1290}"/>
+                  <c16:uniqueId val="{00000003-268D-43AB-81B0-F7852BAB5AFD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3059,7 +3279,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-D15D-481C-89CB-C9AEA38F1290}"/>
+                  <c16:uniqueId val="{00000004-268D-43AB-81B0-F7852BAB5AFD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3105,7 +3325,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-D15D-481C-89CB-C9AEA38F1290}"/>
+                  <c16:uniqueId val="{00000005-268D-43AB-81B0-F7852BAB5AFD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3151,7 +3371,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-D15D-481C-89CB-C9AEA38F1290}"/>
+                  <c16:uniqueId val="{00000006-268D-43AB-81B0-F7852BAB5AFD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3197,7 +3417,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-D15D-481C-89CB-C9AEA38F1290}"/>
+                  <c16:uniqueId val="{00000007-268D-43AB-81B0-F7852BAB5AFD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3240,42 +3460,45 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>('30320'!$B$1,'30320'!$D$1,'30320'!$F$1,'30320'!$H$1,'30320'!$J$1,'30320'!$L$1,'30320'!$N$1,'30320'!$P$1)</c:f>
+              <c:f>('30320'!$B$1:$C$1,'30320'!$D$1:$E$1,'30320'!$F$1:$G$1,'30320'!$H$1:$I$1,'30320'!$J$1:$K$1,'30320'!$L$1:$M$1,'30320'!$N$1:$O$1,'30320'!$P$1:$Q$1,'30320'!$R$1:$S$1)</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>TE電子期貨</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>TF金融期貨</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>MTX小型臺指期貨</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>T5F臺灣50期貨</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>TX臺股指數期貨</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
                   <c:v>MSF臺指期貨</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="12">
                   <c:v>XIF非金電期貨</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="14">
                   <c:v>GTF櫃買指數期貨</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>G2F富櫃200期貨</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('30320'!$B$36,'30320'!$D$36,'30320'!$F$36,'30320'!$H$36,'30320'!$J$36,'30320'!$L$36,'30320'!$N$36,'30320'!$P$36)</c:f>
+              <c:f>('30320'!$B$36,'30320'!$D$36,'30320'!$F$36,'30320'!$H$36,'30320'!$J$36,'30320'!$L$36,'30320'!$N$36,'30320'!$P$36,'30320'!$R$36)</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_ ;[Red]\-#,##0\ </c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3298,6 +3521,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3305,7 +3531,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-D15D-481C-89CB-C9AEA38F1290}"/>
+              <c16:uniqueId val="{00000009-268D-43AB-81B0-F7852BAB5AFD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3385,16 +3611,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9191625" cy="5600700"/>
+    <xdr:ext cx="9191625" cy="5610225"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="圖表 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2BDB13C-3476-45C0-AACD-21F200943E82}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="圖表 1"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -3431,13 +3651,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="71705" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91435CD0-85A3-4C1C-ADCB-21C7DA3FF93A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="71707" name="Chart 1"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -3854,10 +4068,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S40"/>
+  <dimension ref="A1:U40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A35"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3868,50 +4082,55 @@
     <col min="6" max="6" width="9.125" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="9.5" bestFit="1" customWidth="1"/>
     <col min="10" max="17" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:21">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="70" t="s">
+      <c r="C1" s="75"/>
+      <c r="D1" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="70"/>
-      <c r="F1" s="67" t="s">
+      <c r="E1" s="74"/>
+      <c r="F1" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="72"/>
-      <c r="H1" s="73" t="s">
+      <c r="G1" s="76"/>
+      <c r="H1" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="73"/>
-      <c r="J1" s="67" t="s">
+      <c r="I1" s="77"/>
+      <c r="J1" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="67"/>
-      <c r="L1" s="76" t="s">
+      <c r="K1" s="71"/>
+      <c r="L1" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="76"/>
-      <c r="N1" s="74" t="s">
+      <c r="M1" s="80"/>
+      <c r="N1" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="75"/>
-      <c r="P1" s="74" t="s">
+      <c r="O1" s="79"/>
+      <c r="P1" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="68" t="s">
+      <c r="Q1" s="79"/>
+      <c r="R1" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" s="82"/>
+      <c r="T1" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="69"/>
-    </row>
-    <row r="2" spans="1:19" ht="17.25" thickBot="1">
+      <c r="U1" s="73"/>
+    </row>
+    <row r="2" spans="1:21" ht="17.25" thickBot="1">
       <c r="A2" s="9"/>
       <c r="B2" s="10" t="s">
         <v>13</v>
@@ -3961,14 +4180,20 @@
       <c r="Q2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="37" t="s">
+      <c r="R2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="38" t="s">
+      <c r="S2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="T2" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="U2" s="38" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:19" hidden="1">
+    <row r="3" spans="1:21" hidden="1">
       <c r="A3" s="24"/>
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
@@ -3986,935 +4211,1006 @@
       <c r="O3" s="25"/>
       <c r="P3" s="25"/>
       <c r="Q3" s="25"/>
-      <c r="R3" s="13">
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="13">
         <f>SUM(B3,D3,F3,H3,J3)</f>
         <v>0</v>
       </c>
-      <c r="S3" s="14">
+      <c r="U3" s="14">
         <f>SUM(C3,E3,G3,I3,K3,M3,O3,Q3)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="18" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A4" s="64"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="40">
-        <f>SUM(B4,D4,F4,H4,J4,L4,N4,P4)</f>
-        <v>0</v>
-      </c>
-      <c r="S4" s="41">
-        <f>SUM(C4,E4,G4,I4,K4,M4,O4,Q4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" s="18" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A5" s="65"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="40">
-        <f t="shared" ref="R5:R35" si="0">SUM(B5,D5,F5,H5,J5,L5,N5,P5)</f>
-        <v>0</v>
-      </c>
-      <c r="S5" s="41">
-        <f t="shared" ref="S5:S35" si="1">SUM(C5,E5,G5,I5,K5,M5,O5,Q5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" s="18" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A6" s="65"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="40">
+    <row r="4" spans="1:21" s="18" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="41">
+        <f>SUM(B4,D4,F4,H4,J4,L4,N4,P4,R4)</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="42">
+        <f>SUM(C4,E4,G4,I4,K4,M4,O4,Q4,S4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="18" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A5" s="43"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="41">
+        <f t="shared" ref="T5:T35" si="0">SUM(B5,D5,F5,H5,J5,L5,N5,P5,R5)</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="42">
+        <f t="shared" ref="U5:U35" si="1">SUM(C5,E5,G5,I5,K5,M5,O5,Q5,S5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="18" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A6" s="43"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S6" s="41">
+      <c r="U6" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="18" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A7" s="65"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="40">
+    <row r="7" spans="1:21" s="18" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A7" s="43"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S7" s="41">
+      <c r="U7" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="18" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A8" s="65"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="40">
+    <row r="8" spans="1:21" s="18" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A8" s="43"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S8" s="41">
+      <c r="U8" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="18" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A9" s="65"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="40">
+    <row r="9" spans="1:21" s="18" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A9" s="43"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S9" s="41">
+      <c r="U9" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="18" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A10" s="65"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="40">
+    <row r="10" spans="1:21" s="18" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A10" s="43"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S10" s="41">
+      <c r="U10" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="18" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A11" s="65"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="40">
+    <row r="11" spans="1:21" s="18" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A11" s="43"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S11" s="41">
+      <c r="U11" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="18" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A12" s="65"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="40">
+    <row r="12" spans="1:21" s="18" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A12" s="43"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S12" s="41">
+      <c r="U12" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="18" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A13" s="65"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="40">
+    <row r="13" spans="1:21" s="18" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A13" s="43"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S13" s="41">
+      <c r="U13" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="66"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="40">
+    <row r="14" spans="1:21">
+      <c r="A14" s="44"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S14" s="41">
+      <c r="U14" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="66"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="40">
+    <row r="15" spans="1:21">
+      <c r="A15" s="44"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S15" s="41">
+      <c r="U15" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="66"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="40">
+    <row r="16" spans="1:21">
+      <c r="A16" s="44"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S16" s="41">
+      <c r="U16" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
-      <c r="A17" s="66"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="40">
+    <row r="17" spans="1:21">
+      <c r="A17" s="44"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S17" s="41">
+      <c r="U17" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
-      <c r="A18" s="66"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="40">
+    <row r="18" spans="1:21">
+      <c r="A18" s="44"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S18" s="41">
+      <c r="U18" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
-      <c r="A19" s="66"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="40">
+    <row r="19" spans="1:21">
+      <c r="A19" s="44"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="40"/>
+      <c r="T19" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S19" s="41">
+      <c r="U19" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
-      <c r="A20" s="66"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="40">
+    <row r="20" spans="1:21">
+      <c r="A20" s="44"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S20" s="41">
+      <c r="U20" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
-      <c r="A21" s="66"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="40">
+    <row r="21" spans="1:21">
+      <c r="A21" s="44"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S21" s="41">
+      <c r="U21" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
-      <c r="A22" s="66"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="40">
+    <row r="22" spans="1:21">
+      <c r="A22" s="44"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S22" s="41">
-        <f>SUM(C22,E22,G22,I22,K22,M22,O22,Q22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
-      <c r="A23" s="66"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="40">
+      <c r="U22" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" s="44"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S23" s="41">
+      <c r="U23" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
-      <c r="A24" s="66"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="40">
+    <row r="24" spans="1:21">
+      <c r="A24" s="44"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S24" s="41">
+      <c r="U24" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
-      <c r="A25" s="66"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="39"/>
-      <c r="O25" s="39"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="39"/>
-      <c r="R25" s="40">
-        <f>SUM(B25,D25,F25,H25,J25,L25,N25,P25)</f>
-        <v>0</v>
-      </c>
-      <c r="S25" s="41">
+    <row r="25" spans="1:21">
+      <c r="A25" s="44"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="40"/>
+      <c r="S25" s="40"/>
+      <c r="T25" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U25" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
-      <c r="A26" s="66"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="39"/>
-      <c r="O26" s="39"/>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="39"/>
-      <c r="R26" s="40">
+    <row r="26" spans="1:21">
+      <c r="A26" s="44"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S26" s="41">
+      <c r="U26" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
-      <c r="A27" s="66"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="40">
+    <row r="27" spans="1:21">
+      <c r="A27" s="44"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="40"/>
+      <c r="S27" s="40"/>
+      <c r="T27" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S27" s="41">
+      <c r="U27" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
-      <c r="A28" s="66"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="39"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="39"/>
-      <c r="Q28" s="39"/>
-      <c r="R28" s="40">
+    <row r="28" spans="1:21">
+      <c r="A28" s="44"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="40"/>
+      <c r="S28" s="40"/>
+      <c r="T28" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S28" s="41">
+      <c r="U28" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
-      <c r="A29" s="66"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="39"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="39"/>
-      <c r="R29" s="40">
+    <row r="29" spans="1:21">
+      <c r="A29" s="44"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="40"/>
+      <c r="S29" s="40"/>
+      <c r="T29" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S29" s="41">
+      <c r="U29" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
-      <c r="A30" s="66"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="39"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="39"/>
-      <c r="R30" s="40">
+    <row r="30" spans="1:21">
+      <c r="A30" s="44"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="40"/>
+      <c r="S30" s="40"/>
+      <c r="T30" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S30" s="41">
+      <c r="U30" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
-      <c r="A31" s="66"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="39"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="39"/>
-      <c r="R31" s="40">
+    <row r="31" spans="1:21">
+      <c r="A31" s="44"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="40"/>
+      <c r="S31" s="40"/>
+      <c r="T31" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S31" s="41">
+      <c r="U31" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
-      <c r="A32" s="66"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="43"/>
-      <c r="N32" s="43"/>
-      <c r="O32" s="43"/>
-      <c r="P32" s="43"/>
-      <c r="Q32" s="43"/>
-      <c r="R32" s="40">
+    <row r="32" spans="1:21">
+      <c r="A32" s="44"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="46"/>
+      <c r="P32" s="46"/>
+      <c r="Q32" s="46"/>
+      <c r="R32" s="46"/>
+      <c r="S32" s="46"/>
+      <c r="T32" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S32" s="41">
+      <c r="U32" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:19">
-      <c r="A33" s="66"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="43"/>
-      <c r="M33" s="43"/>
-      <c r="N33" s="43"/>
-      <c r="O33" s="43"/>
-      <c r="P33" s="43"/>
-      <c r="Q33" s="43"/>
-      <c r="R33" s="40">
+    <row r="33" spans="1:21">
+      <c r="A33" s="44"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="46"/>
+      <c r="N33" s="46"/>
+      <c r="O33" s="46"/>
+      <c r="P33" s="46"/>
+      <c r="Q33" s="46"/>
+      <c r="R33" s="46"/>
+      <c r="S33" s="46"/>
+      <c r="T33" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S33" s="41">
+      <c r="U33" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:19">
-      <c r="A34" s="66"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="43"/>
-      <c r="M34" s="43"/>
-      <c r="N34" s="43"/>
-      <c r="O34" s="43"/>
-      <c r="P34" s="43"/>
-      <c r="Q34" s="43"/>
-      <c r="R34" s="40">
+    <row r="34" spans="1:21">
+      <c r="A34" s="44"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="46"/>
+      <c r="M34" s="46"/>
+      <c r="N34" s="46"/>
+      <c r="O34" s="46"/>
+      <c r="P34" s="46"/>
+      <c r="Q34" s="46"/>
+      <c r="R34" s="46"/>
+      <c r="S34" s="46"/>
+      <c r="T34" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S34" s="41">
+      <c r="U34" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:19">
-      <c r="A35" s="66"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="43"/>
-      <c r="M35" s="43"/>
-      <c r="N35" s="43"/>
-      <c r="O35" s="43"/>
-      <c r="P35" s="43"/>
-      <c r="Q35" s="43"/>
-      <c r="R35" s="40">
+    <row r="35" spans="1:21">
+      <c r="A35" s="44"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="46"/>
+      <c r="M35" s="46"/>
+      <c r="N35" s="46"/>
+      <c r="O35" s="46"/>
+      <c r="P35" s="46"/>
+      <c r="Q35" s="46"/>
+      <c r="R35" s="46"/>
+      <c r="S35" s="46"/>
+      <c r="T35" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S35" s="41">
+      <c r="U35" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="17.25" thickBot="1">
-      <c r="A36" s="44" t="s">
+    <row r="36" spans="1:21" ht="17.25" thickBot="1">
+      <c r="A36" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="B36" s="45">
+      <c r="B36" s="48">
         <f>SUM(B4:B35)</f>
         <v>0</v>
       </c>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45">
+      <c r="C36" s="48"/>
+      <c r="D36" s="48">
         <f>SUM(D4:D35)</f>
         <v>0</v>
       </c>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45">
+      <c r="E36" s="48"/>
+      <c r="F36" s="48">
         <f>SUM(F4:F35)</f>
         <v>0</v>
       </c>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45">
+      <c r="G36" s="48"/>
+      <c r="H36" s="48">
         <f>SUM(H4:H35)</f>
         <v>0</v>
       </c>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45">
+      <c r="I36" s="48"/>
+      <c r="J36" s="48">
         <f>SUM(J4:J35)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="45"/>
-      <c r="L36" s="45">
+      <c r="K36" s="48"/>
+      <c r="L36" s="48">
         <f>SUM(L4:L35)</f>
         <v>0</v>
       </c>
-      <c r="M36" s="45"/>
-      <c r="N36" s="45">
+      <c r="M36" s="48"/>
+      <c r="N36" s="48">
         <f>SUM(N4:N35)</f>
         <v>0</v>
       </c>
-      <c r="O36" s="45"/>
-      <c r="P36" s="45">
+      <c r="O36" s="48"/>
+      <c r="P36" s="48">
         <f>SUM(P4:P35)</f>
         <v>0</v>
       </c>
-      <c r="Q36" s="45"/>
-      <c r="R36" s="45">
-        <f>B36+D36+F36+H36+J36+P36+L36+N36</f>
-        <v>0</v>
-      </c>
-      <c r="S36" s="46"/>
-    </row>
-    <row r="37" spans="1:19" ht="17.25" thickBot="1">
+      <c r="Q36" s="48"/>
+      <c r="R36" s="48">
+        <f>SUM(R4:R35)</f>
+        <v>0</v>
+      </c>
+      <c r="S36" s="48"/>
+      <c r="T36" s="48">
+        <f>B36+D36+F36+H36+J36+P36+L36+N36+R36</f>
+        <v>0</v>
+      </c>
+      <c r="U36" s="49"/>
+    </row>
+    <row r="37" spans="1:21" ht="17.25" thickBot="1">
       <c r="A37" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B37" s="32">
-        <f>IF(R36=0,0,ROUND(B36/R36,5))* 100</f>
+        <f>IF(T36=0,0,ROUND(B36/T36,5))* 100</f>
         <v>0</v>
       </c>
       <c r="C37" s="32"/>
@@ -4924,48 +5220,53 @@
       </c>
       <c r="E37" s="32"/>
       <c r="F37" s="32">
-        <f>IF(R36=0,0,ROUND(F36/R36,5))* 100</f>
+        <f>IF(T36=0,0,ROUND(F36/T36,5))* 100</f>
         <v>0</v>
       </c>
       <c r="G37" s="32"/>
       <c r="H37" s="32">
-        <f>IF(R36=0,0,ROUND(H36/R36,5))* 100</f>
+        <f>IF(T36=0,0,ROUND(H36/T36,5))* 100</f>
         <v>0</v>
       </c>
       <c r="I37" s="32"/>
       <c r="J37" s="32">
-        <f>IF(R36=0,0,ROUND(J36/R36,5))* 100</f>
+        <f>IF(T36=0,0,ROUND(J36/T36,5))* 100</f>
         <v>0</v>
       </c>
       <c r="K37" s="32"/>
       <c r="L37" s="32">
-        <f>IF(R36=0,0,ROUND(L36/R36,5))* 100</f>
+        <f>IF(T36=0,0,ROUND(L36/T36,5))* 100</f>
         <v>0</v>
       </c>
       <c r="M37" s="32"/>
       <c r="N37" s="32">
-        <f>IF(R36=0,0,ROUND(N36/R36,5))* 100</f>
+        <f>IF(T36=0,0,ROUND(N36/T36,5))* 100</f>
         <v>0</v>
       </c>
       <c r="O37" s="32"/>
       <c r="P37" s="32">
-        <f>IF(R36=0,0,ROUND(P36/R36,5))* 100</f>
+        <f>IF(T36=0,0,ROUND(P36/T36,5))* 100</f>
         <v>0</v>
       </c>
       <c r="Q37" s="32"/>
       <c r="R37" s="32">
-        <f>SUM(J37,H37,F37,D37,B37,P37,L37,N37)</f>
+        <f>IF(T36=0,0,ROUND(R36/T36,5))* 100</f>
+        <v>0</v>
+      </c>
+      <c r="S37" s="32"/>
+      <c r="T37" s="32">
+        <f>SUM(J37,H37,F37,D37,B37,P37,L37,N37,R37)</f>
         <v>100</v>
       </c>
-      <c r="S37" s="16"/>
-    </row>
-    <row r="40" spans="1:19">
+      <c r="U37" s="16"/>
+    </row>
+    <row r="40" spans="1:21">
       <c r="H40" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
@@ -4973,6 +5274,7 @@
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="N1:O1"/>
+    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.55118110236220474" right="0.15748031496062992" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -4985,8 +5287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView zoomScale="80" workbookViewId="0">
+      <selection activeCell="V35" sqref="V35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5008,40 +5310,44 @@
     <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" ht="16.5" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="84"/>
-      <c r="D1" s="83" t="s">
+      <c r="C1" s="91"/>
+      <c r="D1" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="84"/>
-      <c r="F1" s="83" t="s">
+      <c r="E1" s="91"/>
+      <c r="F1" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="84"/>
-      <c r="H1" s="83" t="s">
+      <c r="G1" s="91"/>
+      <c r="H1" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83" t="s">
+      <c r="I1" s="87"/>
+      <c r="J1" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="85"/>
-      <c r="L1" s="81" t="s">
+      <c r="K1" s="92"/>
+      <c r="L1" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="82"/>
-      <c r="N1" s="77" t="s">
+      <c r="M1" s="90"/>
+      <c r="N1" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="78"/>
-      <c r="P1" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1" s="80"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="87" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" s="84"/>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="3" t="s">
@@ -5089,1452 +5395,1554 @@
       <c r="O2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="35" t="s">
+      <c r="P2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="36" t="s">
+      <c r="Q2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="36" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="22"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48">
+      <c r="B3" s="50"/>
+      <c r="C3" s="51">
         <f t="shared" ref="C3:C16" si="0">B3*$C$36</f>
         <v>0</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="48">
+      <c r="D3" s="52"/>
+      <c r="E3" s="51">
         <f t="shared" ref="E3:E34" si="1">D3*$E$36</f>
         <v>0</v>
       </c>
-      <c r="F3" s="50"/>
-      <c r="G3" s="48">
+      <c r="F3" s="53"/>
+      <c r="G3" s="51">
         <f t="shared" ref="G3:G15" si="2">F3*$G$36</f>
         <v>0</v>
       </c>
-      <c r="H3" s="50"/>
-      <c r="I3" s="48">
+      <c r="H3" s="53"/>
+      <c r="I3" s="51">
         <f t="shared" ref="I3:I34" si="3">H3*$I$36</f>
         <v>0</v>
       </c>
-      <c r="J3" s="50"/>
-      <c r="K3" s="48">
+      <c r="J3" s="53"/>
+      <c r="K3" s="51">
         <f t="shared" ref="K3:K34" si="4">J3*$K$36</f>
         <v>0</v>
       </c>
-      <c r="L3" s="51"/>
-      <c r="M3" s="52">
+      <c r="L3" s="54"/>
+      <c r="M3" s="55">
         <f>L3*$M$36</f>
         <v>0</v>
       </c>
-      <c r="N3" s="50"/>
-      <c r="O3" s="48">
+      <c r="N3" s="53"/>
+      <c r="O3" s="51">
         <f>N3*$O$36</f>
         <v>0</v>
       </c>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="54">
+      <c r="P3" s="68"/>
+      <c r="Q3" s="51">
         <f>P3*$Q$36</f>
         <v>0</v>
       </c>
-      <c r="R3"/>
-      <c r="S3"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="57">
+        <f>R3*$S$36</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="22"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48">
+      <c r="B4" s="50"/>
+      <c r="C4" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="48">
+      <c r="D4" s="58"/>
+      <c r="E4" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F4" s="56"/>
-      <c r="G4" s="48">
+      <c r="F4" s="59"/>
+      <c r="G4" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H4" s="56"/>
-      <c r="I4" s="48">
+      <c r="H4" s="59"/>
+      <c r="I4" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J4" s="56"/>
-      <c r="K4" s="48">
+      <c r="J4" s="59"/>
+      <c r="K4" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L4" s="57"/>
-      <c r="M4" s="52">
+      <c r="L4" s="60"/>
+      <c r="M4" s="55">
         <f t="shared" ref="M4:M34" si="5">L4*$M$36</f>
         <v>0</v>
       </c>
-      <c r="N4" s="56"/>
-      <c r="O4" s="48">
+      <c r="N4" s="59"/>
+      <c r="O4" s="51">
         <f t="shared" ref="O4:O34" si="6">N4*$O$36</f>
         <v>0</v>
       </c>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="54">
+      <c r="P4" s="69"/>
+      <c r="Q4" s="51">
         <f t="shared" ref="Q4:Q34" si="7">P4*$Q$36</f>
         <v>0</v>
       </c>
-      <c r="R4"/>
-      <c r="S4"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="57">
+        <f t="shared" ref="S4:S34" si="8">R4*$S$36</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="22"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="48">
+      <c r="B5" s="50"/>
+      <c r="C5" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="48">
+      <c r="D5" s="58"/>
+      <c r="E5" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F5" s="59"/>
-      <c r="G5" s="48">
+      <c r="F5" s="62"/>
+      <c r="G5" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H5" s="59"/>
-      <c r="I5" s="48">
+      <c r="H5" s="62"/>
+      <c r="I5" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J5" s="59"/>
-      <c r="K5" s="48">
+      <c r="J5" s="62"/>
+      <c r="K5" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L5" s="60"/>
-      <c r="M5" s="52">
+      <c r="L5" s="63"/>
+      <c r="M5" s="55">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N5" s="59"/>
-      <c r="O5" s="48">
+      <c r="N5" s="62"/>
+      <c r="O5" s="51">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="54">
+      <c r="P5" s="70"/>
+      <c r="Q5" s="51">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R5"/>
-      <c r="S5"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="57">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="22"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="48">
+      <c r="B6" s="50"/>
+      <c r="C6" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="48">
+      <c r="D6" s="58"/>
+      <c r="E6" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F6" s="59"/>
-      <c r="G6" s="48">
+      <c r="F6" s="62"/>
+      <c r="G6" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H6" s="59"/>
-      <c r="I6" s="48">
+      <c r="H6" s="62"/>
+      <c r="I6" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="48">
+      <c r="J6" s="62"/>
+      <c r="K6" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L6" s="60"/>
-      <c r="M6" s="52">
+      <c r="L6" s="63"/>
+      <c r="M6" s="55">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N6" s="59"/>
-      <c r="O6" s="48">
+      <c r="N6" s="62"/>
+      <c r="O6" s="51">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="54">
+      <c r="P6" s="70"/>
+      <c r="Q6" s="51">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R6"/>
-      <c r="S6"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="57">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="22"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="48">
+      <c r="B7" s="65"/>
+      <c r="C7" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="48">
+      <c r="D7" s="58"/>
+      <c r="E7" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F7" s="59"/>
-      <c r="G7" s="48">
+      <c r="F7" s="62"/>
+      <c r="G7" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="48">
+      <c r="H7" s="62"/>
+      <c r="I7" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J7" s="59"/>
-      <c r="K7" s="48">
+      <c r="J7" s="62"/>
+      <c r="K7" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L7" s="60"/>
-      <c r="M7" s="52">
+      <c r="L7" s="63"/>
+      <c r="M7" s="55">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N7" s="59"/>
-      <c r="O7" s="48">
+      <c r="N7" s="62"/>
+      <c r="O7" s="51">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="54">
+      <c r="P7" s="70"/>
+      <c r="Q7" s="51">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R7"/>
-      <c r="S7"/>
+      <c r="R7" s="64"/>
+      <c r="S7" s="57">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="22"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="48">
+      <c r="B8" s="50"/>
+      <c r="C8" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="48">
+      <c r="D8" s="58"/>
+      <c r="E8" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F8" s="59"/>
-      <c r="G8" s="48">
+      <c r="F8" s="62"/>
+      <c r="G8" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H8" s="59"/>
-      <c r="I8" s="48">
+      <c r="H8" s="62"/>
+      <c r="I8" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J8" s="59"/>
-      <c r="K8" s="48">
+      <c r="J8" s="62"/>
+      <c r="K8" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L8" s="60"/>
-      <c r="M8" s="52">
+      <c r="L8" s="63"/>
+      <c r="M8" s="55">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N8" s="59"/>
-      <c r="O8" s="48">
+      <c r="N8" s="62"/>
+      <c r="O8" s="51">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="54">
+      <c r="P8" s="70"/>
+      <c r="Q8" s="51">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R8"/>
-      <c r="S8"/>
+      <c r="R8" s="64"/>
+      <c r="S8" s="57">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="22"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="48">
+      <c r="B9" s="50"/>
+      <c r="C9" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D9" s="55"/>
-      <c r="E9" s="48">
+      <c r="D9" s="58"/>
+      <c r="E9" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F9" s="59"/>
-      <c r="G9" s="48">
+      <c r="F9" s="62"/>
+      <c r="G9" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H9" s="59"/>
-      <c r="I9" s="48">
+      <c r="H9" s="62"/>
+      <c r="I9" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J9" s="59"/>
-      <c r="K9" s="48">
+      <c r="J9" s="62"/>
+      <c r="K9" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L9" s="60"/>
-      <c r="M9" s="52">
+      <c r="L9" s="63"/>
+      <c r="M9" s="55">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N9" s="59"/>
-      <c r="O9" s="48">
+      <c r="N9" s="62"/>
+      <c r="O9" s="51">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="54">
+      <c r="P9" s="70"/>
+      <c r="Q9" s="51">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R9"/>
-      <c r="S9"/>
+      <c r="R9" s="64"/>
+      <c r="S9" s="57">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="22"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="48">
+      <c r="B10" s="50"/>
+      <c r="C10" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D10" s="55"/>
-      <c r="E10" s="48">
+      <c r="D10" s="58"/>
+      <c r="E10" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F10" s="59"/>
-      <c r="G10" s="48">
+      <c r="F10" s="62"/>
+      <c r="G10" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H10" s="59"/>
-      <c r="I10" s="48">
+      <c r="H10" s="62"/>
+      <c r="I10" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J10" s="59"/>
-      <c r="K10" s="48">
+      <c r="J10" s="62"/>
+      <c r="K10" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L10" s="60"/>
-      <c r="M10" s="52">
+      <c r="L10" s="63"/>
+      <c r="M10" s="55">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N10" s="59"/>
-      <c r="O10" s="48">
+      <c r="N10" s="62"/>
+      <c r="O10" s="51">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="54">
+      <c r="P10" s="70"/>
+      <c r="Q10" s="51">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R10"/>
-      <c r="S10"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="57">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="22"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="48">
+      <c r="B11" s="50"/>
+      <c r="C11" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D11" s="55"/>
-      <c r="E11" s="48">
+      <c r="D11" s="58"/>
+      <c r="E11" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F11" s="59"/>
-      <c r="G11" s="48">
+      <c r="F11" s="62"/>
+      <c r="G11" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H11" s="59"/>
-      <c r="I11" s="48">
+      <c r="H11" s="62"/>
+      <c r="I11" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J11" s="59"/>
-      <c r="K11" s="48">
+      <c r="J11" s="62"/>
+      <c r="K11" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L11" s="60"/>
-      <c r="M11" s="52">
+      <c r="L11" s="63"/>
+      <c r="M11" s="55">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N11" s="59"/>
-      <c r="O11" s="48">
+      <c r="N11" s="62"/>
+      <c r="O11" s="51">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="54">
+      <c r="P11" s="70"/>
+      <c r="Q11" s="51">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R11"/>
-      <c r="S11"/>
+      <c r="R11" s="64"/>
+      <c r="S11" s="57">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="22"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="48">
+      <c r="B12" s="50"/>
+      <c r="C12" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="48">
+      <c r="D12" s="58"/>
+      <c r="E12" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F12" s="59"/>
-      <c r="G12" s="48">
+      <c r="F12" s="62"/>
+      <c r="G12" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H12" s="59"/>
-      <c r="I12" s="48">
+      <c r="H12" s="62"/>
+      <c r="I12" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J12" s="59"/>
-      <c r="K12" s="48">
+      <c r="J12" s="62"/>
+      <c r="K12" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L12" s="60"/>
-      <c r="M12" s="52">
+      <c r="L12" s="63"/>
+      <c r="M12" s="55">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N12" s="59"/>
-      <c r="O12" s="48">
+      <c r="N12" s="62"/>
+      <c r="O12" s="51">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="54">
+      <c r="P12" s="70"/>
+      <c r="Q12" s="51">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R12"/>
-      <c r="S12"/>
+      <c r="R12" s="64"/>
+      <c r="S12" s="57">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="22"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="48">
+      <c r="B13" s="50"/>
+      <c r="C13" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D13" s="55"/>
-      <c r="E13" s="48">
+      <c r="D13" s="58"/>
+      <c r="E13" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F13" s="59"/>
-      <c r="G13" s="48">
+      <c r="F13" s="62"/>
+      <c r="G13" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H13" s="59"/>
-      <c r="I13" s="48">
+      <c r="H13" s="62"/>
+      <c r="I13" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J13" s="59"/>
-      <c r="K13" s="48">
+      <c r="J13" s="62"/>
+      <c r="K13" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L13" s="60"/>
-      <c r="M13" s="52">
+      <c r="L13" s="63"/>
+      <c r="M13" s="55">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N13" s="59"/>
-      <c r="O13" s="48">
+      <c r="N13" s="62"/>
+      <c r="O13" s="51">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="54">
+      <c r="P13" s="70"/>
+      <c r="Q13" s="51">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R13"/>
-      <c r="S13"/>
+      <c r="R13" s="64"/>
+      <c r="S13" s="57">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:19" ht="16.5" customHeight="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="48">
+      <c r="B14" s="66"/>
+      <c r="C14" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="48">
+      <c r="D14" s="52"/>
+      <c r="E14" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F14" s="56"/>
-      <c r="G14" s="48">
+      <c r="F14" s="59"/>
+      <c r="G14" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H14" s="56"/>
-      <c r="I14" s="48">
+      <c r="H14" s="59"/>
+      <c r="I14" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J14" s="56"/>
-      <c r="K14" s="48">
+      <c r="J14" s="59"/>
+      <c r="K14" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L14" s="57"/>
-      <c r="M14" s="52">
+      <c r="L14" s="60"/>
+      <c r="M14" s="55">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N14" s="56"/>
-      <c r="O14" s="48">
+      <c r="N14" s="59"/>
+      <c r="O14" s="51">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P14" s="58"/>
-      <c r="Q14" s="54">
+      <c r="P14" s="69"/>
+      <c r="Q14" s="51">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R14"/>
-      <c r="S14"/>
+      <c r="R14" s="61"/>
+      <c r="S14" s="57">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="22"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="48">
+      <c r="B15" s="66"/>
+      <c r="C15" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="48">
+      <c r="D15" s="52"/>
+      <c r="E15" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F15" s="56"/>
-      <c r="G15" s="48">
+      <c r="F15" s="59"/>
+      <c r="G15" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H15" s="59"/>
-      <c r="I15" s="48">
+      <c r="H15" s="62"/>
+      <c r="I15" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J15" s="56"/>
-      <c r="K15" s="48">
+      <c r="J15" s="59"/>
+      <c r="K15" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L15" s="57"/>
-      <c r="M15" s="52">
+      <c r="L15" s="60"/>
+      <c r="M15" s="55">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N15" s="56"/>
-      <c r="O15" s="48">
+      <c r="N15" s="59"/>
+      <c r="O15" s="51">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="54">
+      <c r="P15" s="69"/>
+      <c r="Q15" s="51">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R15"/>
-      <c r="S15"/>
+      <c r="R15" s="61"/>
+      <c r="S15" s="57">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="22"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="48">
+      <c r="B16" s="66"/>
+      <c r="C16" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D16" s="49"/>
-      <c r="E16" s="48">
+      <c r="D16" s="52"/>
+      <c r="E16" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F16" s="56"/>
-      <c r="G16" s="48">
+      <c r="F16" s="59"/>
+      <c r="G16" s="51">
         <f>F16*$G$36</f>
         <v>0</v>
       </c>
-      <c r="H16" s="59"/>
-      <c r="I16" s="48">
+      <c r="H16" s="62"/>
+      <c r="I16" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J16" s="56"/>
-      <c r="K16" s="48">
+      <c r="J16" s="59"/>
+      <c r="K16" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L16" s="57"/>
-      <c r="M16" s="52">
+      <c r="L16" s="60"/>
+      <c r="M16" s="55">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N16" s="56"/>
-      <c r="O16" s="48">
+      <c r="N16" s="59"/>
+      <c r="O16" s="51">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P16" s="58"/>
-      <c r="Q16" s="54">
+      <c r="P16" s="69"/>
+      <c r="Q16" s="51">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R16"/>
-      <c r="S16"/>
+      <c r="R16" s="61"/>
+      <c r="S16" s="57">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="22"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="48">
-        <f t="shared" ref="C17:C34" si="8">B17*$C$36</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="49"/>
-      <c r="E17" s="48">
+      <c r="B17" s="66"/>
+      <c r="C17" s="51">
+        <f t="shared" ref="C17:C34" si="9">B17*$C$36</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="52"/>
+      <c r="E17" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F17" s="56"/>
-      <c r="G17" s="48">
-        <f t="shared" ref="G17:G34" si="9">F17*$G$36</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="59"/>
-      <c r="I17" s="48">
+      <c r="F17" s="59"/>
+      <c r="G17" s="51">
+        <f t="shared" ref="G17:G34" si="10">F17*$G$36</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="62"/>
+      <c r="I17" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J17" s="56"/>
-      <c r="K17" s="48">
+      <c r="J17" s="59"/>
+      <c r="K17" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L17" s="57"/>
-      <c r="M17" s="52">
+      <c r="L17" s="60"/>
+      <c r="M17" s="55">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N17" s="56"/>
-      <c r="O17" s="48">
+      <c r="N17" s="59"/>
+      <c r="O17" s="51">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P17" s="58"/>
-      <c r="Q17" s="54">
+      <c r="P17" s="69"/>
+      <c r="Q17" s="51">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R17"/>
-      <c r="S17"/>
+      <c r="R17" s="61"/>
+      <c r="S17" s="57">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="22"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="48">
+      <c r="B18" s="66"/>
+      <c r="C18" s="51">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="52"/>
+      <c r="E18" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="59"/>
+      <c r="G18" s="51">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="62"/>
+      <c r="I18" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="59"/>
+      <c r="K18" s="51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="60"/>
+      <c r="M18" s="55">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="59"/>
+      <c r="O18" s="51">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="69"/>
+      <c r="Q18" s="51">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="61"/>
+      <c r="S18" s="57">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D18" s="49"/>
-      <c r="E18" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="56"/>
-      <c r="G18" s="48">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="59"/>
-      <c r="I18" s="48">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="56"/>
-      <c r="K18" s="48">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="57"/>
-      <c r="M18" s="52">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N18" s="56"/>
-      <c r="O18" s="48">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P18" s="58"/>
-      <c r="Q18" s="54">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R18"/>
-      <c r="S18"/>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="22"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="48">
+      <c r="B19" s="66"/>
+      <c r="C19" s="51">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="52"/>
+      <c r="E19" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="59"/>
+      <c r="G19" s="51">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="62"/>
+      <c r="I19" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="59"/>
+      <c r="K19" s="51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="60"/>
+      <c r="M19" s="55">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="59"/>
+      <c r="O19" s="51">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="69"/>
+      <c r="Q19" s="51">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="61"/>
+      <c r="S19" s="57">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D19" s="49"/>
-      <c r="E19" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="56"/>
-      <c r="G19" s="48">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="59"/>
-      <c r="I19" s="48">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="56"/>
-      <c r="K19" s="48">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="57"/>
-      <c r="M19" s="52">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N19" s="56"/>
-      <c r="O19" s="48">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="58"/>
-      <c r="Q19" s="54">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R19"/>
-      <c r="S19"/>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="22"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="48">
+      <c r="B20" s="66"/>
+      <c r="C20" s="51">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D20" s="52"/>
+      <c r="E20" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="59"/>
+      <c r="G20" s="51">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="62"/>
+      <c r="I20" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="59"/>
+      <c r="K20" s="51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="60"/>
+      <c r="M20" s="55">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="59"/>
+      <c r="O20" s="51">
+        <f>N20*$O$36</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="69"/>
+      <c r="Q20" s="51">
+        <f>P20*$Q$36</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="61"/>
+      <c r="S20" s="57">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D20" s="49"/>
-      <c r="E20" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="56"/>
-      <c r="G20" s="48">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="59"/>
-      <c r="I20" s="48">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="56"/>
-      <c r="K20" s="48">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="57"/>
-      <c r="M20" s="52">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N20" s="56"/>
-      <c r="O20" s="48">
-        <f>N20*$O$36</f>
-        <v>0</v>
-      </c>
-      <c r="P20" s="58"/>
-      <c r="Q20" s="54">
-        <f>P20*$Q$36</f>
-        <v>0</v>
-      </c>
-      <c r="R20"/>
-      <c r="S20"/>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="22"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="48">
+      <c r="B21" s="66"/>
+      <c r="C21" s="51">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="52"/>
+      <c r="E21" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="59"/>
+      <c r="G21" s="51">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="62"/>
+      <c r="I21" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="59"/>
+      <c r="K21" s="51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="60"/>
+      <c r="M21" s="55">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="59"/>
+      <c r="O21" s="51">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="69"/>
+      <c r="Q21" s="51">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="61"/>
+      <c r="S21" s="57">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D21" s="49"/>
-      <c r="E21" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="56"/>
-      <c r="G21" s="48">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="59"/>
-      <c r="I21" s="48">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="56"/>
-      <c r="K21" s="48">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="57"/>
-      <c r="M21" s="52">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N21" s="56"/>
-      <c r="O21" s="48">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="58"/>
-      <c r="Q21" s="54">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R21"/>
-      <c r="S21"/>
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="22"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="48">
+      <c r="B22" s="66"/>
+      <c r="C22" s="51">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="52"/>
+      <c r="E22" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="59"/>
+      <c r="G22" s="51">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="62"/>
+      <c r="I22" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="59"/>
+      <c r="K22" s="51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="60"/>
+      <c r="M22" s="55">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="59"/>
+      <c r="O22" s="51">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="69"/>
+      <c r="Q22" s="51">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="61"/>
+      <c r="S22" s="57">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D22" s="49"/>
-      <c r="E22" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="56"/>
-      <c r="G22" s="48">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="59"/>
-      <c r="I22" s="48">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="56"/>
-      <c r="K22" s="48">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L22" s="57"/>
-      <c r="M22" s="52">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N22" s="56"/>
-      <c r="O22" s="48">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P22" s="58"/>
-      <c r="Q22" s="54">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R22"/>
-      <c r="S22"/>
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="22"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="48">
+      <c r="B23" s="66"/>
+      <c r="C23" s="51">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="52"/>
+      <c r="E23" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="59"/>
+      <c r="G23" s="51">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="62"/>
+      <c r="I23" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="59"/>
+      <c r="K23" s="51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="60"/>
+      <c r="M23" s="55">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="59"/>
+      <c r="O23" s="51">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="69"/>
+      <c r="Q23" s="51">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="61"/>
+      <c r="S23" s="57">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D23" s="49"/>
-      <c r="E23" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="56"/>
-      <c r="G23" s="48">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="59"/>
-      <c r="I23" s="48">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="56"/>
-      <c r="K23" s="48">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L23" s="57"/>
-      <c r="M23" s="52">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N23" s="56"/>
-      <c r="O23" s="48">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="58"/>
-      <c r="Q23" s="54">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R23"/>
-      <c r="S23"/>
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="22"/>
-      <c r="B24" s="63"/>
-      <c r="C24" s="48">
+      <c r="B24" s="66"/>
+      <c r="C24" s="51">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="52"/>
+      <c r="E24" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="59"/>
+      <c r="G24" s="51">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="62"/>
+      <c r="I24" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="59"/>
+      <c r="K24" s="51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="60"/>
+      <c r="M24" s="55">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="59"/>
+      <c r="O24" s="51">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="69"/>
+      <c r="Q24" s="51">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="61"/>
+      <c r="S24" s="57">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D24" s="49"/>
-      <c r="E24" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="56"/>
-      <c r="G24" s="48">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="59"/>
-      <c r="I24" s="48">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="56"/>
-      <c r="K24" s="48">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L24" s="57"/>
-      <c r="M24" s="52">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N24" s="56"/>
-      <c r="O24" s="48">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="58"/>
-      <c r="Q24" s="54">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R24"/>
-      <c r="S24"/>
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="22"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="48">
+      <c r="B25" s="66"/>
+      <c r="C25" s="51">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="52"/>
+      <c r="E25" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="59"/>
+      <c r="G25" s="51">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="62"/>
+      <c r="I25" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="59"/>
+      <c r="K25" s="51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="60"/>
+      <c r="M25" s="55">
+        <f>L25*$M$36</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="59"/>
+      <c r="O25" s="51">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="69"/>
+      <c r="Q25" s="51">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="61"/>
+      <c r="S25" s="57">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D25" s="49"/>
-      <c r="E25" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="56"/>
-      <c r="G25" s="48">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="59"/>
-      <c r="I25" s="48">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="56"/>
-      <c r="K25" s="48">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L25" s="57"/>
-      <c r="M25" s="52">
-        <f>L25*$M$36</f>
-        <v>0</v>
-      </c>
-      <c r="N25" s="56"/>
-      <c r="O25" s="48">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P25" s="58"/>
-      <c r="Q25" s="54">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R25"/>
-      <c r="S25"/>
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="22"/>
-      <c r="B26" s="63"/>
-      <c r="C26" s="48">
+      <c r="B26" s="66"/>
+      <c r="C26" s="51">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="52"/>
+      <c r="E26" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="59"/>
+      <c r="G26" s="51">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="62"/>
+      <c r="I26" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="59"/>
+      <c r="K26" s="51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="60"/>
+      <c r="M26" s="55">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="59"/>
+      <c r="O26" s="51">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="69"/>
+      <c r="Q26" s="51">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="61"/>
+      <c r="S26" s="57">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D26" s="49"/>
-      <c r="E26" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="56"/>
-      <c r="G26" s="48">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="59"/>
-      <c r="I26" s="48">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="56"/>
-      <c r="K26" s="48">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="57"/>
-      <c r="M26" s="52">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N26" s="56"/>
-      <c r="O26" s="48">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P26" s="58"/>
-      <c r="Q26" s="54">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R26"/>
-      <c r="S26"/>
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="23"/>
-      <c r="B27" s="63"/>
-      <c r="C27" s="48">
+      <c r="B27" s="66"/>
+      <c r="C27" s="51">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="52"/>
+      <c r="E27" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="59"/>
+      <c r="G27" s="51">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="62"/>
+      <c r="I27" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="59"/>
+      <c r="K27" s="51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="60"/>
+      <c r="M27" s="55">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="59"/>
+      <c r="O27" s="51">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="69"/>
+      <c r="Q27" s="51">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="61"/>
+      <c r="S27" s="57">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D27" s="49"/>
-      <c r="E27" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="56"/>
-      <c r="G27" s="48">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="59"/>
-      <c r="I27" s="48">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="56"/>
-      <c r="K27" s="48">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L27" s="57"/>
-      <c r="M27" s="52">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N27" s="56"/>
-      <c r="O27" s="48">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P27" s="58"/>
-      <c r="Q27" s="54">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R27"/>
-      <c r="S27"/>
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="23"/>
-      <c r="B28" s="63"/>
-      <c r="C28" s="48">
+      <c r="B28" s="66"/>
+      <c r="C28" s="51">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="52"/>
+      <c r="E28" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="59"/>
+      <c r="G28" s="51">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="62"/>
+      <c r="I28" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="59"/>
+      <c r="K28" s="51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="60"/>
+      <c r="M28" s="55">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="59"/>
+      <c r="O28" s="51">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="69"/>
+      <c r="Q28" s="51">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="61"/>
+      <c r="S28" s="57">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D28" s="49"/>
-      <c r="E28" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="56"/>
-      <c r="G28" s="48">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H28" s="59"/>
-      <c r="I28" s="48">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="56"/>
-      <c r="K28" s="48">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L28" s="57"/>
-      <c r="M28" s="52">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N28" s="56"/>
-      <c r="O28" s="48">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P28" s="58"/>
-      <c r="Q28" s="54">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R28"/>
-      <c r="S28"/>
     </row>
     <row r="29" spans="1:19">
       <c r="A29" s="23"/>
-      <c r="B29" s="63"/>
-      <c r="C29" s="48">
+      <c r="B29" s="66"/>
+      <c r="C29" s="51">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="52"/>
+      <c r="E29" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="59"/>
+      <c r="G29" s="51">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="59"/>
+      <c r="I29" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="59"/>
+      <c r="K29" s="51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="60"/>
+      <c r="M29" s="55">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="59"/>
+      <c r="O29" s="51">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="69"/>
+      <c r="Q29" s="51">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="61"/>
+      <c r="S29" s="57">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D29" s="49"/>
-      <c r="E29" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="56"/>
-      <c r="G29" s="48">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H29" s="56"/>
-      <c r="I29" s="48">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="56"/>
-      <c r="K29" s="48">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L29" s="57"/>
-      <c r="M29" s="52">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N29" s="56"/>
-      <c r="O29" s="48">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P29" s="58"/>
-      <c r="Q29" s="54">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R29"/>
-      <c r="S29"/>
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="23"/>
-      <c r="B30" s="63"/>
-      <c r="C30" s="48">
+      <c r="B30" s="66"/>
+      <c r="C30" s="51">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="52"/>
+      <c r="E30" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="59"/>
+      <c r="G30" s="51">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="62"/>
+      <c r="I30" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="59"/>
+      <c r="K30" s="51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="60"/>
+      <c r="M30" s="55">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="59"/>
+      <c r="O30" s="51">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="69"/>
+      <c r="Q30" s="51">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="61"/>
+      <c r="S30" s="57">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D30" s="49"/>
-      <c r="E30" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="56"/>
-      <c r="G30" s="48">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H30" s="59"/>
-      <c r="I30" s="48">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="56"/>
-      <c r="K30" s="48">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L30" s="57"/>
-      <c r="M30" s="52">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N30" s="56"/>
-      <c r="O30" s="48">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P30" s="58"/>
-      <c r="Q30" s="54">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R30"/>
-      <c r="S30"/>
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="23"/>
-      <c r="B31" s="63"/>
-      <c r="C31" s="48">
+      <c r="B31" s="66"/>
+      <c r="C31" s="51">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="52"/>
+      <c r="E31" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="59"/>
+      <c r="G31" s="51">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="62"/>
+      <c r="I31" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="59"/>
+      <c r="K31" s="51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="60"/>
+      <c r="M31" s="55">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="59"/>
+      <c r="O31" s="51">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="69"/>
+      <c r="Q31" s="51">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="61"/>
+      <c r="S31" s="57">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D31" s="49"/>
-      <c r="E31" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="56"/>
-      <c r="G31" s="48">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="59"/>
-      <c r="I31" s="48">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="56"/>
-      <c r="K31" s="48">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L31" s="57"/>
-      <c r="M31" s="52">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N31" s="56"/>
-      <c r="O31" s="48">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P31" s="58"/>
-      <c r="Q31" s="54">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R31"/>
-      <c r="S31"/>
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="23"/>
-      <c r="B32" s="63"/>
-      <c r="C32" s="48">
+      <c r="B32" s="66"/>
+      <c r="C32" s="51">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D32" s="52"/>
+      <c r="E32" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="59"/>
+      <c r="G32" s="51">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="62"/>
+      <c r="I32" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="59"/>
+      <c r="K32" s="51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="60"/>
+      <c r="M32" s="55">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="59"/>
+      <c r="O32" s="51">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="69"/>
+      <c r="Q32" s="51">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="61"/>
+      <c r="S32" s="57">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D32" s="49"/>
-      <c r="E32" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="56"/>
-      <c r="G32" s="48">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="59"/>
-      <c r="I32" s="48">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J32" s="56"/>
-      <c r="K32" s="48">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L32" s="57"/>
-      <c r="M32" s="52">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N32" s="56"/>
-      <c r="O32" s="48">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P32" s="58"/>
-      <c r="Q32" s="54">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R32"/>
-      <c r="S32"/>
     </row>
     <row r="33" spans="1:19">
       <c r="A33" s="23"/>
-      <c r="B33" s="63"/>
-      <c r="C33" s="48">
+      <c r="B33" s="66"/>
+      <c r="C33" s="51">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D33" s="52"/>
+      <c r="E33" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="59"/>
+      <c r="G33" s="51">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="59"/>
+      <c r="I33" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="59"/>
+      <c r="K33" s="51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="60"/>
+      <c r="M33" s="55">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="59"/>
+      <c r="O33" s="51">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="69"/>
+      <c r="Q33" s="51">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="61"/>
+      <c r="S33" s="57">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D33" s="49"/>
-      <c r="E33" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="56"/>
-      <c r="G33" s="48">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H33" s="56"/>
-      <c r="I33" s="48">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J33" s="56"/>
-      <c r="K33" s="48">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L33" s="57"/>
-      <c r="M33" s="52">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N33" s="56"/>
-      <c r="O33" s="48">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P33" s="58"/>
-      <c r="Q33" s="54">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R33"/>
-      <c r="S33"/>
     </row>
     <row r="34" spans="1:19">
       <c r="A34" s="22"/>
-      <c r="B34" s="63"/>
-      <c r="C34" s="48">
+      <c r="B34" s="66"/>
+      <c r="C34" s="51">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D34" s="52"/>
+      <c r="E34" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="59"/>
+      <c r="G34" s="51">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="59"/>
+      <c r="I34" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="59"/>
+      <c r="K34" s="51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="60"/>
+      <c r="M34" s="55">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="59"/>
+      <c r="O34" s="51">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="69"/>
+      <c r="Q34" s="51">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="61"/>
+      <c r="S34" s="57">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D34" s="49"/>
-      <c r="E34" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="56"/>
-      <c r="G34" s="48">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H34" s="56"/>
-      <c r="I34" s="48">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J34" s="56"/>
-      <c r="K34" s="48">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L34" s="57"/>
-      <c r="M34" s="52">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N34" s="56"/>
-      <c r="O34" s="48">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P34" s="58"/>
-      <c r="Q34" s="54">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R34"/>
-      <c r="S34"/>
     </row>
     <row r="35" spans="1:19">
       <c r="A35"/>
@@ -6554,8 +6962,8 @@
       <c r="O35" s="6"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="6"/>
-      <c r="R35"/>
-      <c r="S35"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="6"/>
     </row>
     <row r="36" spans="1:19" s="20" customFormat="1">
       <c r="A36" s="19" t="s">
@@ -6591,6 +6999,10 @@
       </c>
       <c r="Q36" s="20">
         <f xml:space="preserve"> IF(P3=0,0,J3 / P3)</f>
+        <v>0</v>
+      </c>
+      <c r="S36" s="20">
+        <f xml:space="preserve"> IF(R3=0,0,J3 / R3)</f>
         <v>0</v>
       </c>
     </row>
@@ -6622,27 +7034,27 @@
       </c>
       <c r="D38" s="29"/>
       <c r="E38" s="29">
-        <f t="shared" ref="E38:M38" si="10" xml:space="preserve"> MIN(E3:E34)</f>
+        <f t="shared" ref="E38:M38" si="11" xml:space="preserve"> MIN(E3:E34)</f>
         <v>0</v>
       </c>
       <c r="F38" s="29"/>
       <c r="G38" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H38" s="29"/>
       <c r="I38" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J38" s="29"/>
       <c r="K38" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L38" s="29"/>
       <c r="M38" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N38" s="29"/>
@@ -6655,6 +7067,10 @@
         <f xml:space="preserve"> MIN(Q3:Q34)</f>
         <v>0</v>
       </c>
+      <c r="S38" s="29">
+        <f xml:space="preserve"> MIN(S3:S34)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:19" s="28" customFormat="1">
       <c r="C39" s="29">
@@ -6696,6 +7112,10 @@
         <f xml:space="preserve"> MAX(Q3:Q34)</f>
         <v>0</v>
       </c>
+      <c r="S39" s="29">
+        <f xml:space="preserve"> MAX(S3:S34)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:19">
       <c r="A40" s="30" t="s">
@@ -6703,7 +7123,7 @@
       </c>
       <c r="B40"/>
       <c r="C40" s="31">
-        <f xml:space="preserve"> MIN(C38,E38,G38,I38,K38,M38,O38,Q38)</f>
+        <f xml:space="preserve"> MIN(C38,E38,G38,I38,K38,M38,O38,Q38,S38)</f>
         <v>0</v>
       </c>
       <c r="D40" s="27"/>
@@ -6728,7 +7148,7 @@
       </c>
       <c r="B41"/>
       <c r="C41" s="31">
-        <f xml:space="preserve"> MAX(C39,E39,G39,I39,K39,M39,O39,Q39)</f>
+        <f xml:space="preserve"> MAX(C39,E39,G39,I39,K39,M39,O39,Q39,S39)</f>
         <v>0</v>
       </c>
       <c r="D41" s="27"/>
@@ -6888,7 +7308,8 @@
       <c r="R48"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="R1:S1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="L1:M1"/>
@@ -6910,7 +7331,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
